--- a/AAII_Financials/Quarterly/GVFF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GVFF_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>GVFF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,131 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="E8" s="3">
         <v>1900</v>
       </c>
       <c r="F8" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="G8" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="H8" s="3">
         <v>1800</v>
       </c>
       <c r="I8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K8" s="3">
         <v>1700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1600</v>
-      </c>
-      <c r="M8" s="3">
-        <v>1500</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1500</v>
       </c>
       <c r="O8" s="3">
         <v>1500</v>
       </c>
       <c r="P8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -819,8 +832,14 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +882,14 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,8 +1123,10 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1081,10 +1134,10 @@
         <v>500</v>
       </c>
       <c r="E17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G17" s="3">
         <v>400</v>
@@ -1096,10 +1149,10 @@
         <v>400</v>
       </c>
       <c r="J17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L17" s="3">
         <v>300</v>
@@ -1116,28 +1169,34 @@
       <c r="P17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>300</v>
+      </c>
+      <c r="R17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E18" s="3">
         <v>1400</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1500</v>
       </c>
       <c r="F18" s="3">
         <v>1400</v>
       </c>
       <c r="G18" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="H18" s="3">
         <v>1400</v>
       </c>
       <c r="I18" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="J18" s="3">
         <v>1400</v>
@@ -1146,22 +1205,28 @@
         <v>1300</v>
       </c>
       <c r="L18" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M18" s="3">
         <v>1300</v>
       </c>
-      <c r="M18" s="3">
-        <v>1200</v>
-      </c>
       <c r="N18" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="O18" s="3">
         <v>1200</v>
       </c>
       <c r="P18" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R18" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1190,40 +1257,46 @@
         <v>-1300</v>
       </c>
       <c r="F20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I20" s="3">
         <v>-1200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-1200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-1100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-1000</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-1100</v>
       </c>
       <c r="O20" s="3">
         <v>-1100</v>
       </c>
       <c r="P20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="R20" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1266,8 +1339,14 @@
       <c r="P21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,25 +1389,31 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E23" s="3">
         <v>100</v>
       </c>
       <c r="F23" s="3">
+        <v>200</v>
+      </c>
+      <c r="G23" s="3">
         <v>100</v>
       </c>
-      <c r="G23" s="3">
-        <v>200</v>
-      </c>
       <c r="H23" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I23" s="3">
         <v>200</v>
@@ -1337,25 +1422,31 @@
         <v>300</v>
       </c>
       <c r="K23" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L23" s="3">
         <v>300</v>
       </c>
       <c r="M23" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N23" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="O23" s="3">
         <v>100</v>
       </c>
       <c r="P23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>100</v>
+      </c>
+      <c r="R23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1384,22 +1475,28 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,25 +1539,31 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>100</v>
       </c>
       <c r="F26" s="3">
+        <v>200</v>
+      </c>
+      <c r="G26" s="3">
         <v>100</v>
       </c>
-      <c r="G26" s="3">
-        <v>200</v>
-      </c>
       <c r="H26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I26" s="3">
         <v>200</v>
@@ -1469,42 +1572,48 @@
         <v>200</v>
       </c>
       <c r="K26" s="3">
+        <v>200</v>
+      </c>
+      <c r="L26" s="3">
+        <v>200</v>
+      </c>
+      <c r="M26" s="3">
         <v>300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>300</v>
-      </c>
-      <c r="M26" s="3">
-        <v>100</v>
-      </c>
-      <c r="N26" s="3">
-        <v>100</v>
       </c>
       <c r="O26" s="3">
         <v>100</v>
       </c>
       <c r="P26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>100</v>
+      </c>
+      <c r="R26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
         <v>100</v>
       </c>
       <c r="F27" s="3">
+        <v>200</v>
+      </c>
+      <c r="G27" s="3">
         <v>100</v>
       </c>
-      <c r="G27" s="3">
-        <v>200</v>
-      </c>
       <c r="H27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I27" s="3">
         <v>200</v>
@@ -1513,25 +1622,31 @@
         <v>200</v>
       </c>
       <c r="K27" s="3">
+        <v>200</v>
+      </c>
+      <c r="L27" s="3">
+        <v>200</v>
+      </c>
+      <c r="M27" s="3">
         <v>300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>300</v>
-      </c>
-      <c r="M27" s="3">
-        <v>100</v>
-      </c>
-      <c r="N27" s="3">
-        <v>100</v>
       </c>
       <c r="O27" s="3">
         <v>100</v>
       </c>
       <c r="P27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>100</v>
+      </c>
+      <c r="R27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1718,57 +1857,63 @@
         <v>1300</v>
       </c>
       <c r="F32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G32" s="3">
         <v>1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I32" s="3">
         <v>1200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>1200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>1100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>1000</v>
-      </c>
-      <c r="M32" s="3">
-        <v>1100</v>
-      </c>
-      <c r="N32" s="3">
-        <v>1100</v>
       </c>
       <c r="O32" s="3">
         <v>1100</v>
       </c>
       <c r="P32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R32" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>100</v>
       </c>
       <c r="F33" s="3">
+        <v>200</v>
+      </c>
+      <c r="G33" s="3">
         <v>100</v>
       </c>
-      <c r="G33" s="3">
-        <v>200</v>
-      </c>
       <c r="H33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I33" s="3">
         <v>200</v>
@@ -1777,25 +1922,31 @@
         <v>200</v>
       </c>
       <c r="K33" s="3">
+        <v>200</v>
+      </c>
+      <c r="L33" s="3">
+        <v>200</v>
+      </c>
+      <c r="M33" s="3">
         <v>300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>300</v>
-      </c>
-      <c r="M33" s="3">
-        <v>100</v>
-      </c>
-      <c r="N33" s="3">
-        <v>100</v>
       </c>
       <c r="O33" s="3">
         <v>100</v>
       </c>
       <c r="P33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>100</v>
+      </c>
+      <c r="R33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,25 +1989,31 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>100</v>
       </c>
       <c r="F35" s="3">
+        <v>200</v>
+      </c>
+      <c r="G35" s="3">
         <v>100</v>
       </c>
-      <c r="G35" s="3">
-        <v>200</v>
-      </c>
       <c r="H35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I35" s="3">
         <v>200</v>
@@ -1865,74 +2022,86 @@
         <v>200</v>
       </c>
       <c r="K35" s="3">
+        <v>200</v>
+      </c>
+      <c r="L35" s="3">
+        <v>200</v>
+      </c>
+      <c r="M35" s="3">
         <v>300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>300</v>
-      </c>
-      <c r="M35" s="3">
-        <v>100</v>
-      </c>
-      <c r="N35" s="3">
-        <v>100</v>
       </c>
       <c r="O35" s="3">
         <v>100</v>
       </c>
       <c r="P35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>100</v>
+      </c>
+      <c r="R35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2138,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>24800</v>
+      </c>
+      <c r="F41" s="3">
         <v>15600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>9000</v>
-      </c>
-      <c r="F41" s="3">
-        <v>10200</v>
-      </c>
-      <c r="G41" s="3">
-        <v>10400</v>
       </c>
       <c r="H41" s="3">
         <v>10200</v>
       </c>
       <c r="I41" s="3">
+        <v>10400</v>
+      </c>
+      <c r="J41" s="3">
+        <v>10200</v>
+      </c>
+      <c r="K41" s="3">
         <v>10700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>11700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>10800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>10100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>8400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>9100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>12700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2234,14 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2284,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2334,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,8 +2384,14 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,8 +2434,14 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2484,14 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2319,8 +2534,14 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2684,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2734,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>202500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>198800</v>
+      </c>
+      <c r="F54" s="3">
         <v>186500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>180200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>182900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>181400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>181600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>179400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>177100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>174500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>170300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>165600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>160500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>160700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>159300</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2878,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2663,8 +2924,14 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,8 +2974,14 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2751,8 +3024,14 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2795,8 +3074,14 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +3124,14 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3174,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>180700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>177000</v>
+      </c>
+      <c r="F66" s="3">
         <v>164700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>158600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>161200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>159600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>160000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>158000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>155800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>153400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>149500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>145100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>140000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>140200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>138700</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,8 +3594,14 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3297,8 +3644,14 @@
       <c r="P72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+      <c r="R72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,8 +3794,14 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3438,43 +3809,49 @@
         <v>21800</v>
       </c>
       <c r="E76" s="3">
+        <v>21800</v>
+      </c>
+      <c r="F76" s="3">
+        <v>21800</v>
+      </c>
+      <c r="G76" s="3">
         <v>21600</v>
-      </c>
-      <c r="F76" s="3">
-        <v>21600</v>
-      </c>
-      <c r="G76" s="3">
-        <v>21800</v>
       </c>
       <c r="H76" s="3">
         <v>21600</v>
       </c>
       <c r="I76" s="3">
+        <v>21800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>21600</v>
+      </c>
+      <c r="K76" s="3">
         <v>21400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>21300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>21100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>20800</v>
-      </c>
-      <c r="M76" s="3">
-        <v>20500</v>
-      </c>
-      <c r="N76" s="3">
-        <v>20500</v>
       </c>
       <c r="O76" s="3">
         <v>20500</v>
       </c>
       <c r="P76" s="3">
+        <v>20500</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>20500</v>
+      </c>
+      <c r="R76" s="3">
         <v>20600</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,74 +3894,86 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
         <v>100</v>
       </c>
       <c r="F81" s="3">
+        <v>200</v>
+      </c>
+      <c r="G81" s="3">
         <v>100</v>
       </c>
-      <c r="G81" s="3">
-        <v>200</v>
-      </c>
       <c r="H81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I81" s="3">
         <v>200</v>
@@ -3593,25 +3982,31 @@
         <v>200</v>
       </c>
       <c r="K81" s="3">
+        <v>200</v>
+      </c>
+      <c r="L81" s="3">
+        <v>200</v>
+      </c>
+      <c r="M81" s="3">
         <v>300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>300</v>
-      </c>
-      <c r="M81" s="3">
-        <v>100</v>
-      </c>
-      <c r="N81" s="3">
-        <v>100</v>
       </c>
       <c r="O81" s="3">
         <v>100</v>
       </c>
       <c r="P81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>100</v>
+      </c>
+      <c r="R81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4319,14 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3936,8 +4369,14 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4393,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4439,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4539,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4589,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4809,14 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4368,8 +4859,14 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4909,14 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4454,6 +4957,12 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GVFF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GVFF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t>GVFF</t>
   </si>
@@ -2195,26 +2195,26 @@
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>1700</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2495,26 +2495,26 @@
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>0</v>
+      <c r="D48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>4200</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2985,26 +2985,26 @@
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>0</v>
+      <c r="D59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -3605,26 +3605,26 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>0</v>
+      <c r="D72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E72" s="3">
-        <v>0</v>
-      </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3">
-        <v>0</v>
+        <v>14100</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K72" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/GVFF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GVFF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
   <si>
     <t>GVFF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,93 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E8" s="3">
         <v>1800</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1900</v>
       </c>
       <c r="F8" s="3">
         <v>1900</v>
@@ -756,7 +760,7 @@
         <v>1900</v>
       </c>
       <c r="H8" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="I8" s="3">
         <v>1800</v>
@@ -765,19 +769,19 @@
         <v>1800</v>
       </c>
       <c r="K8" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="L8" s="3">
         <v>1700</v>
       </c>
       <c r="M8" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="N8" s="3">
         <v>1600</v>
       </c>
       <c r="O8" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="P8" s="3">
         <v>1500</v>
@@ -786,10 +790,13 @@
         <v>1500</v>
       </c>
       <c r="R8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,13 +1151,14 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E17" s="3">
         <v>500</v>
@@ -1140,7 +1167,7 @@
         <v>500</v>
       </c>
       <c r="G17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H17" s="3">
         <v>400</v>
@@ -1155,7 +1182,7 @@
         <v>400</v>
       </c>
       <c r="L17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M17" s="3">
         <v>300</v>
@@ -1175,25 +1202,28 @@
       <c r="R17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>900</v>
+      </c>
+      <c r="E18" s="3">
         <v>1300</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1400</v>
       </c>
       <c r="F18" s="3">
         <v>1400</v>
       </c>
       <c r="G18" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H18" s="3">
         <v>1500</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1400</v>
       </c>
       <c r="I18" s="3">
         <v>1400</v>
@@ -1202,19 +1232,19 @@
         <v>1400</v>
       </c>
       <c r="K18" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L18" s="3">
         <v>1300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1400</v>
-      </c>
-      <c r="M18" s="3">
-        <v>1300</v>
       </c>
       <c r="N18" s="3">
         <v>1300</v>
       </c>
       <c r="O18" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="P18" s="3">
         <v>1200</v>
@@ -1223,10 +1253,13 @@
         <v>1200</v>
       </c>
       <c r="R18" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S18" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,46 +1278,47 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1200</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-1300</v>
       </c>
       <c r="H20" s="3">
         <v>-1300</v>
       </c>
       <c r="I20" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="J20" s="3">
         <v>-1200</v>
       </c>
       <c r="K20" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="L20" s="3">
         <v>-1100</v>
       </c>
       <c r="M20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="N20" s="3">
         <v>-900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1000</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-1100</v>
       </c>
       <c r="P20" s="3">
         <v>-1100</v>
@@ -1293,10 +1327,13 @@
         <v>-1100</v>
       </c>
       <c r="R20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="S20" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1345,8 +1382,11 @@
       <c r="R21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,37 +1435,40 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E23" s="3">
         <v>100</v>
       </c>
       <c r="F23" s="3">
+        <v>100</v>
+      </c>
+      <c r="G23" s="3">
         <v>200</v>
-      </c>
-      <c r="G23" s="3">
-        <v>100</v>
       </c>
       <c r="H23" s="3">
         <v>100</v>
       </c>
       <c r="I23" s="3">
+        <v>100</v>
+      </c>
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>200</v>
-      </c>
-      <c r="L23" s="3">
-        <v>300</v>
       </c>
       <c r="M23" s="3">
         <v>300</v>
@@ -1434,7 +1477,7 @@
         <v>300</v>
       </c>
       <c r="O23" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="P23" s="3">
         <v>100</v>
@@ -1443,15 +1486,18 @@
         <v>100</v>
       </c>
       <c r="R23" s="3">
+        <v>100</v>
+      </c>
+      <c r="S23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1481,11 +1527,11 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
@@ -1493,10 +1539,13 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,28 +1594,31 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>200</v>
-      </c>
-      <c r="G26" s="3">
-        <v>100</v>
       </c>
       <c r="H26" s="3">
         <v>100</v>
       </c>
       <c r="I26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J26" s="3">
         <v>200</v>
@@ -1578,13 +1630,13 @@
         <v>200</v>
       </c>
       <c r="M26" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N26" s="3">
         <v>300</v>
       </c>
       <c r="O26" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="P26" s="3">
         <v>100</v>
@@ -1593,30 +1645,33 @@
         <v>100</v>
       </c>
       <c r="R26" s="3">
+        <v>100</v>
+      </c>
+      <c r="S26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>200</v>
-      </c>
-      <c r="G27" s="3">
-        <v>100</v>
       </c>
       <c r="H27" s="3">
         <v>100</v>
       </c>
       <c r="I27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J27" s="3">
         <v>200</v>
@@ -1628,13 +1683,13 @@
         <v>200</v>
       </c>
       <c r="M27" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N27" s="3">
         <v>300</v>
       </c>
       <c r="O27" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="P27" s="3">
         <v>100</v>
@@ -1643,10 +1698,13 @@
         <v>100</v>
       </c>
       <c r="R27" s="3">
+        <v>100</v>
+      </c>
+      <c r="S27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,46 +1912,49 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>500</v>
+      </c>
+      <c r="E32" s="3">
         <v>1200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1200</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1300</v>
       </c>
       <c r="H32" s="3">
         <v>1300</v>
       </c>
       <c r="I32" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="J32" s="3">
         <v>1200</v>
       </c>
       <c r="K32" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="L32" s="3">
         <v>1100</v>
       </c>
       <c r="M32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N32" s="3">
         <v>900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1000</v>
-      </c>
-      <c r="O32" s="3">
-        <v>1100</v>
       </c>
       <c r="P32" s="3">
         <v>1100</v>
@@ -1893,30 +1963,33 @@
         <v>1100</v>
       </c>
       <c r="R32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S32" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>200</v>
-      </c>
-      <c r="G33" s="3">
-        <v>100</v>
       </c>
       <c r="H33" s="3">
         <v>100</v>
       </c>
       <c r="I33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J33" s="3">
         <v>200</v>
@@ -1928,13 +2001,13 @@
         <v>200</v>
       </c>
       <c r="M33" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N33" s="3">
         <v>300</v>
       </c>
       <c r="O33" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="P33" s="3">
         <v>100</v>
@@ -1943,10 +2016,13 @@
         <v>100</v>
       </c>
       <c r="R33" s="3">
+        <v>100</v>
+      </c>
+      <c r="S33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,28 +2071,31 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>200</v>
-      </c>
-      <c r="G35" s="3">
-        <v>100</v>
       </c>
       <c r="H35" s="3">
         <v>100</v>
       </c>
       <c r="I35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J35" s="3">
         <v>200</v>
@@ -2028,13 +2107,13 @@
         <v>200</v>
       </c>
       <c r="M35" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N35" s="3">
         <v>300</v>
       </c>
       <c r="O35" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="P35" s="3">
         <v>100</v>
@@ -2043,65 +2122,71 @@
         <v>100</v>
       </c>
       <c r="R35" s="3">
+        <v>100</v>
+      </c>
+      <c r="S35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,70 +2226,74 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E41" s="3">
         <v>30200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>24800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>15600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>10200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>10400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>12700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="3">
         <v>1700</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>5</v>
       </c>
@@ -2216,8 +2306,8 @@
       <c r="J42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2390,8 +2489,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2440,8 +2542,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,20 +2595,23 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="3">
         <v>4200</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>5</v>
       </c>
@@ -2516,8 +2624,8 @@
       <c r="J48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>217600</v>
+      </c>
+      <c r="E54" s="3">
         <v>202500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>198800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>186500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>180200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>182900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>181400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>181600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>179400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>177100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>174500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>170300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>165600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>160500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>160700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>159300</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2930,8 +3061,11 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,20 +3114,23 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="3">
         <v>500</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3006,8 +3143,8 @@
       <c r="J59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -3030,8 +3167,11 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3080,8 +3220,11 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>195400</v>
+      </c>
+      <c r="E66" s="3">
         <v>180700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>177000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>164700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>158600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>161200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>159600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>160000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>158000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>155800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>153400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>149500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>145100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>140000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>140200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>138700</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,20 +3771,23 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="3">
         <v>14100</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>5</v>
       </c>
@@ -3626,8 +3800,8 @@
       <c r="J72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
+      <c r="K72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L72" s="3">
         <v>0</v>
@@ -3650,8 +3824,11 @@
       <c r="R72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,13 +3983,16 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>21800</v>
+        <v>22100</v>
       </c>
       <c r="E76" s="3">
         <v>21800</v>
@@ -3815,31 +4001,31 @@
         <v>21800</v>
       </c>
       <c r="G76" s="3">
-        <v>21600</v>
+        <v>21800</v>
       </c>
       <c r="H76" s="3">
         <v>21600</v>
       </c>
       <c r="I76" s="3">
+        <v>21600</v>
+      </c>
+      <c r="J76" s="3">
         <v>21800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>21600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>21300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>21100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>20800</v>
-      </c>
-      <c r="O76" s="3">
-        <v>20500</v>
       </c>
       <c r="P76" s="3">
         <v>20500</v>
@@ -3848,10 +4034,13 @@
         <v>20500</v>
       </c>
       <c r="R76" s="3">
+        <v>20500</v>
+      </c>
+      <c r="S76" s="3">
         <v>20600</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,83 +4089,89 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>200</v>
-      </c>
-      <c r="G81" s="3">
-        <v>100</v>
       </c>
       <c r="H81" s="3">
         <v>100</v>
       </c>
       <c r="I81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J81" s="3">
         <v>200</v>
@@ -3988,13 +4183,13 @@
         <v>200</v>
       </c>
       <c r="M81" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N81" s="3">
         <v>300</v>
       </c>
       <c r="O81" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="P81" s="3">
         <v>100</v>
@@ -4003,10 +4198,13 @@
         <v>100</v>
       </c>
       <c r="R81" s="3">
+        <v>100</v>
+      </c>
+      <c r="S81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4375,8 +4592,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4963,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GVFF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GVFF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
   <si>
     <t>GVFF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E8" s="3">
         <v>1700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1800</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1900</v>
       </c>
       <c r="G8" s="3">
         <v>1900</v>
@@ -763,7 +767,7 @@
         <v>1900</v>
       </c>
       <c r="I8" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="J8" s="3">
         <v>1800</v>
@@ -772,19 +776,19 @@
         <v>1800</v>
       </c>
       <c r="L8" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="M8" s="3">
         <v>1700</v>
       </c>
       <c r="N8" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="O8" s="3">
         <v>1600</v>
       </c>
       <c r="P8" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="Q8" s="3">
         <v>1500</v>
@@ -793,10 +797,13 @@
         <v>1500</v>
       </c>
       <c r="S8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,16 +1178,17 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
         <v>800</v>
-      </c>
-      <c r="E17" s="3">
-        <v>500</v>
       </c>
       <c r="F17" s="3">
         <v>500</v>
@@ -1170,7 +1197,7 @@
         <v>500</v>
       </c>
       <c r="H17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I17" s="3">
         <v>400</v>
@@ -1185,7 +1212,7 @@
         <v>400</v>
       </c>
       <c r="M17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N17" s="3">
         <v>300</v>
@@ -1205,28 +1232,31 @@
       <c r="S17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E18" s="3">
         <v>900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1300</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1400</v>
       </c>
       <c r="G18" s="3">
         <v>1400</v>
       </c>
       <c r="H18" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I18" s="3">
         <v>1500</v>
-      </c>
-      <c r="I18" s="3">
-        <v>1400</v>
       </c>
       <c r="J18" s="3">
         <v>1400</v>
@@ -1235,19 +1265,19 @@
         <v>1400</v>
       </c>
       <c r="L18" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M18" s="3">
         <v>1300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1400</v>
-      </c>
-      <c r="N18" s="3">
-        <v>1300</v>
       </c>
       <c r="O18" s="3">
         <v>1300</v>
       </c>
       <c r="P18" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="Q18" s="3">
         <v>1200</v>
@@ -1256,10 +1286,13 @@
         <v>1200</v>
       </c>
       <c r="S18" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T18" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,49 +1312,50 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1200</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-1300</v>
       </c>
       <c r="I20" s="3">
         <v>-1300</v>
       </c>
       <c r="J20" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="K20" s="3">
         <v>-1200</v>
       </c>
       <c r="L20" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="M20" s="3">
         <v>-1100</v>
       </c>
       <c r="N20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="O20" s="3">
         <v>-900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1000</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-1100</v>
       </c>
       <c r="Q20" s="3">
         <v>-1100</v>
@@ -1330,10 +1364,13 @@
         <v>-1100</v>
       </c>
       <c r="S20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="T20" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1385,8 +1422,11 @@
       <c r="S21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,40 +1478,43 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
         <v>400</v>
-      </c>
-      <c r="E23" s="3">
-        <v>100</v>
       </c>
       <c r="F23" s="3">
         <v>100</v>
       </c>
       <c r="G23" s="3">
+        <v>100</v>
+      </c>
+      <c r="H23" s="3">
         <v>200</v>
-      </c>
-      <c r="H23" s="3">
-        <v>100</v>
       </c>
       <c r="I23" s="3">
         <v>100</v>
       </c>
       <c r="J23" s="3">
+        <v>100</v>
+      </c>
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>200</v>
-      </c>
-      <c r="M23" s="3">
-        <v>300</v>
       </c>
       <c r="N23" s="3">
         <v>300</v>
@@ -1480,7 +1523,7 @@
         <v>300</v>
       </c>
       <c r="P23" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Q23" s="3">
         <v>100</v>
@@ -1489,19 +1532,22 @@
         <v>100</v>
       </c>
       <c r="S23" s="3">
+        <v>100</v>
+      </c>
+      <c r="T23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -1530,11 +1576,11 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
@@ -1542,10 +1588,13 @@
         <v>0</v>
       </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,31 +1646,34 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
         <v>400</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>200</v>
-      </c>
-      <c r="H26" s="3">
-        <v>100</v>
       </c>
       <c r="I26" s="3">
         <v>100</v>
       </c>
       <c r="J26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K26" s="3">
         <v>200</v>
@@ -1633,13 +1685,13 @@
         <v>200</v>
       </c>
       <c r="N26" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O26" s="3">
         <v>300</v>
       </c>
       <c r="P26" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Q26" s="3">
         <v>100</v>
@@ -1648,33 +1700,36 @@
         <v>100</v>
       </c>
       <c r="S26" s="3">
+        <v>100</v>
+      </c>
+      <c r="T26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
         <v>400</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>200</v>
-      </c>
-      <c r="H27" s="3">
-        <v>100</v>
       </c>
       <c r="I27" s="3">
         <v>100</v>
       </c>
       <c r="J27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K27" s="3">
         <v>200</v>
@@ -1686,13 +1741,13 @@
         <v>200</v>
       </c>
       <c r="N27" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O27" s="3">
         <v>300</v>
       </c>
       <c r="P27" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Q27" s="3">
         <v>100</v>
@@ -1701,10 +1756,13 @@
         <v>100</v>
       </c>
       <c r="S27" s="3">
+        <v>100</v>
+      </c>
+      <c r="T27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,49 +1982,52 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E32" s="3">
         <v>500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1200</v>
-      </c>
-      <c r="H32" s="3">
-        <v>1300</v>
       </c>
       <c r="I32" s="3">
         <v>1300</v>
       </c>
       <c r="J32" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="K32" s="3">
         <v>1200</v>
       </c>
       <c r="L32" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="M32" s="3">
         <v>1100</v>
       </c>
       <c r="N32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O32" s="3">
         <v>900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1000</v>
-      </c>
-      <c r="P32" s="3">
-        <v>1100</v>
       </c>
       <c r="Q32" s="3">
         <v>1100</v>
@@ -1966,33 +2036,36 @@
         <v>1100</v>
       </c>
       <c r="S32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T32" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
         <v>400</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>200</v>
-      </c>
-      <c r="H33" s="3">
-        <v>100</v>
       </c>
       <c r="I33" s="3">
         <v>100</v>
       </c>
       <c r="J33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K33" s="3">
         <v>200</v>
@@ -2004,13 +2077,13 @@
         <v>200</v>
       </c>
       <c r="N33" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O33" s="3">
         <v>300</v>
       </c>
       <c r="P33" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Q33" s="3">
         <v>100</v>
@@ -2019,10 +2092,13 @@
         <v>100</v>
       </c>
       <c r="S33" s="3">
+        <v>100</v>
+      </c>
+      <c r="T33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,31 +2150,34 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
         <v>400</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>200</v>
-      </c>
-      <c r="H35" s="3">
-        <v>100</v>
       </c>
       <c r="I35" s="3">
         <v>100</v>
       </c>
       <c r="J35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K35" s="3">
         <v>200</v>
@@ -2110,13 +2189,13 @@
         <v>200</v>
       </c>
       <c r="N35" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O35" s="3">
         <v>300</v>
       </c>
       <c r="P35" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Q35" s="3">
         <v>100</v>
@@ -2125,68 +2204,74 @@
         <v>100</v>
       </c>
       <c r="S35" s="3">
+        <v>100</v>
+      </c>
+      <c r="T35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E41" s="3">
         <v>29500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>30200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>24800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>15600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>10200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>12700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2291,12 +2381,12 @@
       <c r="E42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3">
         <v>1700</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>5</v>
       </c>
@@ -2309,8 +2399,8 @@
       <c r="K42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2492,8 +2591,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2609,12 +2717,12 @@
       <c r="E48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3">
         <v>4200</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>5</v>
       </c>
@@ -2627,8 +2735,8 @@
       <c r="K48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>213000</v>
+      </c>
+      <c r="E54" s="3">
         <v>217600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>202500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>198800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>186500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>180200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>182900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>181400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>181600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>179400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>177100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>174500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>170300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>165600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>160500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>160700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>159300</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3064,8 +3195,11 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,8 +3251,11 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3128,12 +3265,12 @@
       <c r="E59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3">
         <v>500</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3146,8 +3283,8 @@
       <c r="K59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="L59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -3170,8 +3307,11 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3223,8 +3363,11 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>191100</v>
+      </c>
+      <c r="E66" s="3">
         <v>195400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>180700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>177000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>164700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>158600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>161200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>159600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>160000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>158000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>155800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>153400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>149500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>145100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>140000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>140200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>138700</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,8 +3945,11 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3785,12 +3959,12 @@
       <c r="E72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="3">
         <v>14100</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>5</v>
       </c>
@@ -3803,8 +3977,8 @@
       <c r="K72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L72" s="3">
-        <v>0</v>
+      <c r="L72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M72" s="3">
         <v>0</v>
@@ -3827,8 +4001,11 @@
       <c r="S72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,16 +4169,19 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E76" s="3">
         <v>22100</v>
-      </c>
-      <c r="E76" s="3">
-        <v>21800</v>
       </c>
       <c r="F76" s="3">
         <v>21800</v>
@@ -4004,31 +4190,31 @@
         <v>21800</v>
       </c>
       <c r="H76" s="3">
-        <v>21600</v>
+        <v>21800</v>
       </c>
       <c r="I76" s="3">
         <v>21600</v>
       </c>
       <c r="J76" s="3">
+        <v>21600</v>
+      </c>
+      <c r="K76" s="3">
         <v>21800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>21400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>21300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>21100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>20800</v>
-      </c>
-      <c r="P76" s="3">
-        <v>20500</v>
       </c>
       <c r="Q76" s="3">
         <v>20500</v>
@@ -4037,10 +4223,13 @@
         <v>20500</v>
       </c>
       <c r="S76" s="3">
+        <v>20500</v>
+      </c>
+      <c r="T76" s="3">
         <v>20600</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,89 +4281,95 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
         <v>400</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>200</v>
-      </c>
-      <c r="H81" s="3">
-        <v>100</v>
       </c>
       <c r="I81" s="3">
         <v>100</v>
       </c>
       <c r="J81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K81" s="3">
         <v>200</v>
@@ -4186,13 +4381,13 @@
         <v>200</v>
       </c>
       <c r="N81" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O81" s="3">
         <v>300</v>
       </c>
       <c r="P81" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Q81" s="3">
         <v>100</v>
@@ -4201,10 +4396,13 @@
         <v>100</v>
       </c>
       <c r="S81" s="3">
+        <v>100</v>
+      </c>
+      <c r="T81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5114,8 +5360,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GVFF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GVFF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
   <si>
     <t>GVFF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,158 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E8" s="3">
         <v>1800</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1700</v>
       </c>
       <c r="F8" s="3">
         <v>1800</v>
       </c>
       <c r="G8" s="3">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="H8" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="I8" s="3">
         <v>1900</v>
       </c>
       <c r="J8" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="K8" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="L8" s="3">
         <v>1800</v>
       </c>
       <c r="M8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O8" s="3">
         <v>1700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1600</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>1500</v>
-      </c>
-      <c r="R8" s="3">
-        <v>1500</v>
       </c>
       <c r="S8" s="3">
         <v>1500</v>
       </c>
       <c r="T8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="V8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -858,8 +871,14 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +933,14 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1081,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1143,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,31 +1230,33 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>300</v>
+      </c>
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>800</v>
-      </c>
-      <c r="F17" s="3">
-        <v>500</v>
-      </c>
-      <c r="G17" s="3">
-        <v>500</v>
       </c>
       <c r="H17" s="3">
         <v>500</v>
       </c>
       <c r="I17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K17" s="3">
         <v>400</v>
@@ -1215,10 +1268,10 @@
         <v>400</v>
       </c>
       <c r="N17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P17" s="3">
         <v>300</v>
@@ -1235,8 +1288,14 @@
       <c r="T17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>300</v>
+      </c>
+      <c r="V17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,31 +1303,31 @@
         <v>1400</v>
       </c>
       <c r="E18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G18" s="3">
         <v>900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>1300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>1400</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1400</v>
-      </c>
-      <c r="I18" s="3">
-        <v>1500</v>
       </c>
       <c r="J18" s="3">
         <v>1400</v>
       </c>
       <c r="K18" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L18" s="3">
         <v>1400</v>
       </c>
       <c r="M18" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="N18" s="3">
         <v>1400</v>
@@ -1277,22 +1336,28 @@
         <v>1300</v>
       </c>
       <c r="P18" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q18" s="3">
         <v>1300</v>
       </c>
-      <c r="Q18" s="3">
-        <v>1200</v>
-      </c>
       <c r="R18" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="S18" s="3">
         <v>1200</v>
       </c>
       <c r="T18" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U18" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V18" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,22 +1378,24 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-500</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-1300</v>
       </c>
       <c r="H20" s="3">
         <v>-1200</v>
@@ -1337,40 +1404,46 @@
         <v>-1300</v>
       </c>
       <c r="J20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="M20" s="3">
         <v>-1200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-1200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-1100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-1100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-1000</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-1100</v>
       </c>
       <c r="S20" s="3">
         <v>-1100</v>
       </c>
       <c r="T20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="U20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="V20" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1425,8 +1498,14 @@
       <c r="T21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,37 +1560,43 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>100</v>
-      </c>
-      <c r="G23" s="3">
-        <v>100</v>
-      </c>
-      <c r="H23" s="3">
-        <v>200</v>
       </c>
       <c r="I23" s="3">
         <v>100</v>
       </c>
       <c r="J23" s="3">
+        <v>200</v>
+      </c>
+      <c r="K23" s="3">
         <v>100</v>
       </c>
-      <c r="K23" s="3">
-        <v>200</v>
-      </c>
       <c r="L23" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M23" s="3">
         <v>200</v>
@@ -1520,25 +1605,31 @@
         <v>300</v>
       </c>
       <c r="O23" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P23" s="3">
         <v>300</v>
       </c>
       <c r="Q23" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="R23" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="S23" s="3">
         <v>100</v>
       </c>
       <c r="T23" s="3">
+        <v>100</v>
+      </c>
+      <c r="U23" s="3">
+        <v>100</v>
+      </c>
+      <c r="V23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1546,14 +1637,14 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1579,22 +1670,28 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,37 +1746,43 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>400</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
-        <v>100</v>
-      </c>
       <c r="H26" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
         <v>100</v>
       </c>
       <c r="J26" s="3">
+        <v>200</v>
+      </c>
+      <c r="K26" s="3">
         <v>100</v>
       </c>
-      <c r="K26" s="3">
-        <v>200</v>
-      </c>
       <c r="L26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M26" s="3">
         <v>200</v>
@@ -1688,54 +1791,60 @@
         <v>200</v>
       </c>
       <c r="O26" s="3">
+        <v>200</v>
+      </c>
+      <c r="P26" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q26" s="3">
         <v>300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>300</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>100</v>
-      </c>
-      <c r="R26" s="3">
-        <v>100</v>
       </c>
       <c r="S26" s="3">
         <v>100</v>
       </c>
       <c r="T26" s="3">
+        <v>100</v>
+      </c>
+      <c r="U26" s="3">
+        <v>100</v>
+      </c>
+      <c r="V26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>400</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
-        <v>100</v>
-      </c>
       <c r="H27" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
         <v>100</v>
       </c>
       <c r="J27" s="3">
+        <v>200</v>
+      </c>
+      <c r="K27" s="3">
         <v>100</v>
       </c>
-      <c r="K27" s="3">
-        <v>200</v>
-      </c>
       <c r="L27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M27" s="3">
         <v>200</v>
@@ -1744,25 +1853,31 @@
         <v>200</v>
       </c>
       <c r="O27" s="3">
+        <v>200</v>
+      </c>
+      <c r="P27" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q27" s="3">
         <v>300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>300</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>100</v>
-      </c>
-      <c r="R27" s="3">
-        <v>100</v>
       </c>
       <c r="S27" s="3">
         <v>100</v>
       </c>
       <c r="T27" s="3">
+        <v>100</v>
+      </c>
+      <c r="U27" s="3">
+        <v>100</v>
+      </c>
+      <c r="V27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,22 +2118,28 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F32" s="3">
         <v>1600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>500</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1200</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1300</v>
       </c>
       <c r="H32" s="3">
         <v>1200</v>
@@ -2009,69 +2148,75 @@
         <v>1300</v>
       </c>
       <c r="J32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K32" s="3">
         <v>1300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M32" s="3">
         <v>1200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>1200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>1100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>1100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>1100</v>
-      </c>
-      <c r="R32" s="3">
-        <v>1100</v>
       </c>
       <c r="S32" s="3">
         <v>1100</v>
       </c>
       <c r="T32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V32" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>400</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
-        <v>100</v>
-      </c>
       <c r="H33" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
         <v>100</v>
       </c>
       <c r="J33" s="3">
+        <v>200</v>
+      </c>
+      <c r="K33" s="3">
         <v>100</v>
       </c>
-      <c r="K33" s="3">
-        <v>200</v>
-      </c>
       <c r="L33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M33" s="3">
         <v>200</v>
@@ -2080,25 +2225,31 @@
         <v>200</v>
       </c>
       <c r="O33" s="3">
+        <v>200</v>
+      </c>
+      <c r="P33" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q33" s="3">
         <v>300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>300</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>100</v>
-      </c>
-      <c r="R33" s="3">
-        <v>100</v>
       </c>
       <c r="S33" s="3">
         <v>100</v>
       </c>
       <c r="T33" s="3">
+        <v>100</v>
+      </c>
+      <c r="U33" s="3">
+        <v>100</v>
+      </c>
+      <c r="V33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,37 +2304,43 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>400</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
-        <v>100</v>
-      </c>
       <c r="H35" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
         <v>100</v>
       </c>
       <c r="J35" s="3">
+        <v>200</v>
+      </c>
+      <c r="K35" s="3">
         <v>100</v>
       </c>
-      <c r="K35" s="3">
-        <v>200</v>
-      </c>
       <c r="L35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M35" s="3">
         <v>200</v>
@@ -2192,86 +2349,98 @@
         <v>200</v>
       </c>
       <c r="O35" s="3">
+        <v>200</v>
+      </c>
+      <c r="P35" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q35" s="3">
         <v>300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>300</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>100</v>
-      </c>
-      <c r="R35" s="3">
-        <v>100</v>
       </c>
       <c r="S35" s="3">
         <v>100</v>
       </c>
       <c r="T35" s="3">
+        <v>100</v>
+      </c>
+      <c r="U35" s="3">
+        <v>100</v>
+      </c>
+      <c r="V35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,85 +2485,93 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>23200</v>
+      </c>
+      <c r="F41" s="3">
         <v>23000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>29500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>30200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>24800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>15600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>9000</v>
-      </c>
-      <c r="J41" s="3">
-        <v>10200</v>
-      </c>
-      <c r="K41" s="3">
-        <v>10400</v>
       </c>
       <c r="L41" s="3">
         <v>10200</v>
       </c>
       <c r="M41" s="3">
+        <v>10400</v>
+      </c>
+      <c r="N41" s="3">
+        <v>10200</v>
+      </c>
+      <c r="O41" s="3">
         <v>10700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>11700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>10800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>10100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>8400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>9100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>12700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>5</v>
+      <c r="E42" s="3">
+        <v>7700</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3">
         <v>1700</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
       </c>
@@ -2402,11 +2581,11 @@
       <c r="L42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2426,8 +2605,14 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2667,14 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2729,14 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2594,8 +2791,14 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2650,8 +2853,14 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,29 +2915,35 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>5</v>
+      <c r="E48" s="3">
+        <v>4200</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3">
         <v>4200</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
       </c>
@@ -2738,11 +2953,11 @@
       <c r="L48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -2762,8 +2977,14 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +3039,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3163,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3225,14 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3287,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>224600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>212800</v>
+      </c>
+      <c r="F54" s="3">
         <v>213000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>217600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>202500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>198800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>186500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>180200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>182900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>181400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>181600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>179400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>177100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>174500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>170300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>165600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>160500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>160700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>159300</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3401,10 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3198,8 +3459,14 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,29 +3521,35 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
+      <c r="E59" s="3">
+        <v>400</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="3">
         <v>500</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3286,11 +3559,11 @@
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -3310,8 +3583,14 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3366,8 +3645,14 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3707,14 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3769,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3955,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>202500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>190800</v>
+      </c>
+      <c r="F66" s="3">
         <v>191100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>195400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>180700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>177000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>164700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>158600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>161200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>159600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>160000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>158000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>155800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>153400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>149500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>145100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>140000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>140200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>138700</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,29 +4289,35 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>5</v>
+      <c r="E72" s="3">
+        <v>14200</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="3">
         <v>14100</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
       </c>
@@ -3980,11 +4327,11 @@
       <c r="L72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M72" s="3">
-        <v>0</v>
-      </c>
-      <c r="N72" s="3">
-        <v>0</v>
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O72" s="3">
         <v>0</v>
@@ -4004,8 +4351,14 @@
       <c r="T72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3">
+        <v>0</v>
+      </c>
+      <c r="V72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4537,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>22000</v>
+      </c>
+      <c r="F76" s="3">
         <v>21900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>22100</v>
-      </c>
-      <c r="F76" s="3">
-        <v>21800</v>
-      </c>
-      <c r="G76" s="3">
-        <v>21800</v>
       </c>
       <c r="H76" s="3">
         <v>21800</v>
       </c>
       <c r="I76" s="3">
+        <v>21800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>21800</v>
+      </c>
+      <c r="K76" s="3">
         <v>21600</v>
-      </c>
-      <c r="J76" s="3">
-        <v>21600</v>
-      </c>
-      <c r="K76" s="3">
-        <v>21800</v>
       </c>
       <c r="L76" s="3">
         <v>21600</v>
       </c>
       <c r="M76" s="3">
+        <v>21800</v>
+      </c>
+      <c r="N76" s="3">
+        <v>21600</v>
+      </c>
+      <c r="O76" s="3">
         <v>21400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>21300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>21100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>20800</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>20500</v>
-      </c>
-      <c r="R76" s="3">
-        <v>20500</v>
       </c>
       <c r="S76" s="3">
         <v>20500</v>
       </c>
       <c r="T76" s="3">
+        <v>20500</v>
+      </c>
+      <c r="U76" s="3">
+        <v>20500</v>
+      </c>
+      <c r="V76" s="3">
         <v>20600</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,98 +4661,110 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>400</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
-        <v>100</v>
-      </c>
       <c r="H81" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
         <v>100</v>
       </c>
       <c r="J81" s="3">
+        <v>200</v>
+      </c>
+      <c r="K81" s="3">
         <v>100</v>
       </c>
-      <c r="K81" s="3">
-        <v>200</v>
-      </c>
       <c r="L81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M81" s="3">
         <v>200</v>
@@ -4384,25 +4773,31 @@
         <v>200</v>
       </c>
       <c r="O81" s="3">
+        <v>200</v>
+      </c>
+      <c r="P81" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q81" s="3">
         <v>300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>300</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>100</v>
-      </c>
-      <c r="R81" s="3">
-        <v>100</v>
       </c>
       <c r="S81" s="3">
         <v>100</v>
       </c>
       <c r="T81" s="3">
+        <v>100</v>
+      </c>
+      <c r="U81" s="3">
+        <v>100</v>
+      </c>
+      <c r="V81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4818,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4876,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +5186,14 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4815,8 +5248,14 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5276,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5334,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5458,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5520,14 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5792,14 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5363,8 +5854,14 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5916,14 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5473,6 +5976,12 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GVFF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GVFF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
   <si>
     <t>GVFF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,158 +665,172 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F8" s="3">
         <v>1700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1800</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1800</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1700</v>
       </c>
       <c r="H8" s="3">
         <v>1800</v>
       </c>
       <c r="I8" s="3">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="J8" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="K8" s="3">
         <v>1900</v>
       </c>
       <c r="L8" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="M8" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="N8" s="3">
         <v>1800</v>
       </c>
       <c r="O8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q8" s="3">
         <v>1700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1600</v>
-      </c>
-      <c r="S8" s="3">
-        <v>1500</v>
-      </c>
-      <c r="T8" s="3">
-        <v>1500</v>
       </c>
       <c r="U8" s="3">
         <v>1500</v>
       </c>
       <c r="V8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="W8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="X8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -877,8 +891,14 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +959,14 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +989,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1053,14 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1121,14 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,8 +1189,14 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1257,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,8 +1284,10 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1244,25 +1298,25 @@
         <v>300</v>
       </c>
       <c r="F17" s="3">
+        <v>300</v>
+      </c>
+      <c r="G17" s="3">
+        <v>300</v>
+      </c>
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
-      </c>
-      <c r="H17" s="3">
-        <v>500</v>
-      </c>
-      <c r="I17" s="3">
-        <v>500</v>
       </c>
       <c r="J17" s="3">
         <v>500</v>
       </c>
       <c r="K17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M17" s="3">
         <v>400</v>
@@ -1274,10 +1328,10 @@
         <v>400</v>
       </c>
       <c r="P17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R17" s="3">
         <v>300</v>
@@ -1294,46 +1348,52 @@
       <c r="V17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>300</v>
+      </c>
+      <c r="X17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="E18" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="F18" s="3">
         <v>1400</v>
       </c>
       <c r="G18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I18" s="3">
         <v>900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>1300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>1400</v>
-      </c>
-      <c r="J18" s="3">
-        <v>1400</v>
-      </c>
-      <c r="K18" s="3">
-        <v>1500</v>
       </c>
       <c r="L18" s="3">
         <v>1400</v>
       </c>
       <c r="M18" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="N18" s="3">
         <v>1400</v>
       </c>
       <c r="O18" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="P18" s="3">
         <v>1400</v>
@@ -1342,22 +1402,28 @@
         <v>1300</v>
       </c>
       <c r="R18" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S18" s="3">
         <v>1300</v>
       </c>
-      <c r="S18" s="3">
-        <v>1200</v>
-      </c>
       <c r="T18" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="U18" s="3">
         <v>1200</v>
       </c>
       <c r="V18" s="3">
+        <v>1200</v>
+      </c>
+      <c r="W18" s="3">
+        <v>1200</v>
+      </c>
+      <c r="X18" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,28 +1446,30 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1100</v>
+        <v>-1400</v>
       </c>
       <c r="E20" s="3">
         <v>-1200</v>
       </c>
       <c r="F20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H20" s="3">
         <v>-1600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-500</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-1300</v>
       </c>
       <c r="J20" s="3">
         <v>-1200</v>
@@ -1410,40 +1478,46 @@
         <v>-1300</v>
       </c>
       <c r="L20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="M20" s="3">
         <v>-1300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="O20" s="3">
         <v>-1200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-1200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-1100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-1000</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-1100</v>
       </c>
       <c r="U20" s="3">
         <v>-1100</v>
       </c>
       <c r="V20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="W20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="X20" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1504,8 +1578,14 @@
       <c r="V21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,43 +1646,49 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>400</v>
+      </c>
+      <c r="F23" s="3">
         <v>300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>100</v>
-      </c>
-      <c r="J23" s="3">
-        <v>200</v>
       </c>
       <c r="K23" s="3">
         <v>100</v>
       </c>
       <c r="L23" s="3">
+        <v>200</v>
+      </c>
+      <c r="M23" s="3">
         <v>100</v>
       </c>
-      <c r="M23" s="3">
-        <v>200</v>
-      </c>
       <c r="N23" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="O23" s="3">
         <v>200</v>
@@ -1611,25 +1697,31 @@
         <v>300</v>
       </c>
       <c r="Q23" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R23" s="3">
         <v>300</v>
       </c>
       <c r="S23" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="T23" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="U23" s="3">
         <v>100</v>
       </c>
       <c r="V23" s="3">
+        <v>100</v>
+      </c>
+      <c r="W23" s="3">
+        <v>100</v>
+      </c>
+      <c r="X23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1637,20 +1729,20 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1676,22 +1768,28 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,8 +1850,14 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1761,34 +1865,34 @@
         <v>200</v>
       </c>
       <c r="E26" s="3">
+        <v>300</v>
+      </c>
+      <c r="F26" s="3">
         <v>200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
+        <v>200</v>
+      </c>
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>400</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
-        <v>100</v>
-      </c>
       <c r="J26" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
         <v>100</v>
       </c>
       <c r="L26" s="3">
+        <v>200</v>
+      </c>
+      <c r="M26" s="3">
         <v>100</v>
       </c>
-      <c r="M26" s="3">
-        <v>200</v>
-      </c>
       <c r="N26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O26" s="3">
         <v>200</v>
@@ -1797,25 +1901,31 @@
         <v>200</v>
       </c>
       <c r="Q26" s="3">
+        <v>200</v>
+      </c>
+      <c r="R26" s="3">
+        <v>200</v>
+      </c>
+      <c r="S26" s="3">
         <v>300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>300</v>
-      </c>
-      <c r="S26" s="3">
-        <v>100</v>
-      </c>
-      <c r="T26" s="3">
-        <v>100</v>
       </c>
       <c r="U26" s="3">
         <v>100</v>
       </c>
       <c r="V26" s="3">
+        <v>100</v>
+      </c>
+      <c r="W26" s="3">
+        <v>100</v>
+      </c>
+      <c r="X26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1823,34 +1933,34 @@
         <v>200</v>
       </c>
       <c r="E27" s="3">
+        <v>300</v>
+      </c>
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
+        <v>200</v>
+      </c>
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>400</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
-        <v>100</v>
-      </c>
       <c r="J27" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
         <v>100</v>
       </c>
       <c r="L27" s="3">
+        <v>200</v>
+      </c>
+      <c r="M27" s="3">
         <v>100</v>
       </c>
-      <c r="M27" s="3">
-        <v>200</v>
-      </c>
       <c r="N27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O27" s="3">
         <v>200</v>
@@ -1859,25 +1969,31 @@
         <v>200</v>
       </c>
       <c r="Q27" s="3">
+        <v>200</v>
+      </c>
+      <c r="R27" s="3">
+        <v>200</v>
+      </c>
+      <c r="S27" s="3">
         <v>300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>300</v>
-      </c>
-      <c r="S27" s="3">
-        <v>100</v>
-      </c>
-      <c r="T27" s="3">
-        <v>100</v>
       </c>
       <c r="U27" s="3">
         <v>100</v>
       </c>
       <c r="V27" s="3">
+        <v>100</v>
+      </c>
+      <c r="W27" s="3">
+        <v>100</v>
+      </c>
+      <c r="X27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2122,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,28 +2258,34 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="E32" s="3">
         <v>1200</v>
       </c>
       <c r="F32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H32" s="3">
         <v>1600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>500</v>
-      </c>
-      <c r="H32" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I32" s="3">
-        <v>1300</v>
       </c>
       <c r="J32" s="3">
         <v>1200</v>
@@ -2154,40 +2294,46 @@
         <v>1300</v>
       </c>
       <c r="L32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M32" s="3">
         <v>1300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O32" s="3">
         <v>1200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>1200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>1100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>1100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>1000</v>
-      </c>
-      <c r="S32" s="3">
-        <v>1100</v>
-      </c>
-      <c r="T32" s="3">
-        <v>1100</v>
       </c>
       <c r="U32" s="3">
         <v>1100</v>
       </c>
       <c r="V32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X32" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2195,34 +2341,34 @@
         <v>200</v>
       </c>
       <c r="E33" s="3">
+        <v>300</v>
+      </c>
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
+        <v>200</v>
+      </c>
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>400</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
-        <v>100</v>
-      </c>
       <c r="J33" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
         <v>100</v>
       </c>
       <c r="L33" s="3">
+        <v>200</v>
+      </c>
+      <c r="M33" s="3">
         <v>100</v>
       </c>
-      <c r="M33" s="3">
-        <v>200</v>
-      </c>
       <c r="N33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O33" s="3">
         <v>200</v>
@@ -2231,25 +2377,31 @@
         <v>200</v>
       </c>
       <c r="Q33" s="3">
+        <v>200</v>
+      </c>
+      <c r="R33" s="3">
+        <v>200</v>
+      </c>
+      <c r="S33" s="3">
         <v>300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>300</v>
-      </c>
-      <c r="S33" s="3">
-        <v>100</v>
-      </c>
-      <c r="T33" s="3">
-        <v>100</v>
       </c>
       <c r="U33" s="3">
         <v>100</v>
       </c>
       <c r="V33" s="3">
+        <v>100</v>
+      </c>
+      <c r="W33" s="3">
+        <v>100</v>
+      </c>
+      <c r="X33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,8 +2462,14 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2319,34 +2477,34 @@
         <v>200</v>
       </c>
       <c r="E35" s="3">
+        <v>300</v>
+      </c>
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
+        <v>200</v>
+      </c>
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>400</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
-        <v>100</v>
-      </c>
       <c r="J35" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
         <v>100</v>
       </c>
       <c r="L35" s="3">
+        <v>200</v>
+      </c>
+      <c r="M35" s="3">
         <v>100</v>
       </c>
-      <c r="M35" s="3">
-        <v>200</v>
-      </c>
       <c r="N35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O35" s="3">
         <v>200</v>
@@ -2355,92 +2513,104 @@
         <v>200</v>
       </c>
       <c r="Q35" s="3">
+        <v>200</v>
+      </c>
+      <c r="R35" s="3">
+        <v>200</v>
+      </c>
+      <c r="S35" s="3">
         <v>300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>300</v>
-      </c>
-      <c r="S35" s="3">
-        <v>100</v>
-      </c>
-      <c r="T35" s="3">
-        <v>100</v>
       </c>
       <c r="U35" s="3">
         <v>100</v>
       </c>
       <c r="V35" s="3">
+        <v>100</v>
+      </c>
+      <c r="W35" s="3">
+        <v>100</v>
+      </c>
+      <c r="X35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,97 +2659,105 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>15500</v>
+      </c>
+      <c r="F41" s="3">
         <v>21200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>23200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>23000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>29500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>30200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>24800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>15600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>9000</v>
-      </c>
-      <c r="L41" s="3">
-        <v>10200</v>
-      </c>
-      <c r="M41" s="3">
-        <v>10400</v>
       </c>
       <c r="N41" s="3">
         <v>10200</v>
       </c>
       <c r="O41" s="3">
+        <v>10400</v>
+      </c>
+      <c r="P41" s="3">
+        <v>10200</v>
+      </c>
+      <c r="Q41" s="3">
         <v>10700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>11700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>10800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>10100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>8400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>9100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>12700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3">
         <v>7700</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="3">
         <v>1700</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>5</v>
       </c>
@@ -2587,11 +2767,11 @@
       <c r="N42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2611,8 +2791,14 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2673,8 +2859,14 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +2927,14 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2797,8 +2995,14 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2859,8 +3063,14 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,35 +3131,41 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3">
         <v>4200</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
         <v>4200</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>5</v>
       </c>
@@ -2959,11 +3175,11 @@
       <c r="N48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -2983,8 +3199,14 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3267,14 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3403,14 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3471,14 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3539,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>223900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>222400</v>
+      </c>
+      <c r="F54" s="3">
         <v>224600</v>
       </c>
-      <c r="E54" s="3">
-        <v>212800</v>
-      </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>213000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
+        <v>213000</v>
+      </c>
+      <c r="I54" s="3">
         <v>217600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>202500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>198800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>186500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>180200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>182900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>181400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>181600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>179400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>177100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>174500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>170300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>165600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>160500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>160700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>159300</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3663,10 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3465,8 +3727,14 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3527,35 +3795,41 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3">
         <v>400</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I59" s="3">
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3">
         <v>500</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3565,11 +3839,11 @@
       <c r="N59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -3589,8 +3863,14 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3651,8 +3931,14 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,8 +3999,14 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3775,8 +4067,14 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4271,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>201400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>200000</v>
+      </c>
+      <c r="F66" s="3">
         <v>202500</v>
       </c>
-      <c r="E66" s="3">
-        <v>190800</v>
-      </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
+        <v>191000</v>
+      </c>
+      <c r="H66" s="3">
         <v>191100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>195400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>180700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>177000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>164700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>158600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>161200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>159600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>160000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>158000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>155800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>153400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>149500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>145100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>140000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>140200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>138700</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,35 +4637,41 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="3">
         <v>14200</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I72" s="3">
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
         <v>14100</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>5</v>
       </c>
@@ -4333,11 +4681,11 @@
       <c r="N72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O72" s="3">
-        <v>0</v>
-      </c>
-      <c r="P72" s="3">
-        <v>0</v>
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q72" s="3">
         <v>0</v>
@@ -4357,8 +4705,14 @@
       <c r="V72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3">
+        <v>0</v>
+      </c>
+      <c r="X72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4909,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>22400</v>
+      </c>
+      <c r="F76" s="3">
         <v>22200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>22000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>21900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>22100</v>
-      </c>
-      <c r="H76" s="3">
-        <v>21800</v>
-      </c>
-      <c r="I76" s="3">
-        <v>21800</v>
       </c>
       <c r="J76" s="3">
         <v>21800</v>
       </c>
       <c r="K76" s="3">
+        <v>21800</v>
+      </c>
+      <c r="L76" s="3">
+        <v>21800</v>
+      </c>
+      <c r="M76" s="3">
         <v>21600</v>
-      </c>
-      <c r="L76" s="3">
-        <v>21600</v>
-      </c>
-      <c r="M76" s="3">
-        <v>21800</v>
       </c>
       <c r="N76" s="3">
         <v>21600</v>
       </c>
       <c r="O76" s="3">
+        <v>21800</v>
+      </c>
+      <c r="P76" s="3">
+        <v>21600</v>
+      </c>
+      <c r="Q76" s="3">
         <v>21400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>21300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>21100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>20800</v>
-      </c>
-      <c r="S76" s="3">
-        <v>20500</v>
-      </c>
-      <c r="T76" s="3">
-        <v>20500</v>
       </c>
       <c r="U76" s="3">
         <v>20500</v>
       </c>
       <c r="V76" s="3">
+        <v>20500</v>
+      </c>
+      <c r="W76" s="3">
+        <v>20500</v>
+      </c>
+      <c r="X76" s="3">
         <v>20600</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,75 +5045,87 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4743,34 +5133,34 @@
         <v>200</v>
       </c>
       <c r="E81" s="3">
+        <v>300</v>
+      </c>
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
+        <v>200</v>
+      </c>
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>400</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3">
-        <v>100</v>
-      </c>
       <c r="J81" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K81" s="3">
         <v>100</v>
       </c>
       <c r="L81" s="3">
+        <v>200</v>
+      </c>
+      <c r="M81" s="3">
         <v>100</v>
       </c>
-      <c r="M81" s="3">
-        <v>200</v>
-      </c>
       <c r="N81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O81" s="3">
         <v>200</v>
@@ -4779,25 +5169,31 @@
         <v>200</v>
       </c>
       <c r="Q81" s="3">
+        <v>200</v>
+      </c>
+      <c r="R81" s="3">
+        <v>200</v>
+      </c>
+      <c r="S81" s="3">
         <v>300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>300</v>
-      </c>
-      <c r="S81" s="3">
-        <v>100</v>
-      </c>
-      <c r="T81" s="3">
-        <v>100</v>
       </c>
       <c r="U81" s="3">
         <v>100</v>
       </c>
       <c r="V81" s="3">
+        <v>100</v>
+      </c>
+      <c r="W81" s="3">
+        <v>100</v>
+      </c>
+      <c r="X81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5216,10 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5280,14 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5620,14 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5254,8 +5688,14 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5718,10 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5340,8 +5782,14 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5918,14 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5526,8 +5986,14 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6284,14 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5860,8 +6352,14 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,8 +6420,14 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5982,6 +6486,12 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GVFF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GVFF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="92">
   <si>
     <t>GVFF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,121 +665,132 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F8" s="3">
         <v>1900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1900</v>
       </c>
-      <c r="F8" s="3">
-        <v>1700</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1800</v>
-      </c>
       <c r="H8" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="I8" s="3">
         <v>1700</v>
@@ -788,49 +799,58 @@
         <v>1800</v>
       </c>
       <c r="K8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N8" s="3">
         <v>1900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
         <v>1900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="3">
         <v>1900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="Q8" s="3">
         <v>1800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="R8" s="3">
         <v>1800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="S8" s="3">
         <v>1800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="T8" s="3">
         <v>1700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="U8" s="3">
         <v>1700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="V8" s="3">
         <v>1600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="W8" s="3">
         <v>1600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="X8" s="3">
         <v>1500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="Y8" s="3">
         <v>1500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Z8" s="3">
         <v>1500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="AA8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -897,8 +917,17 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +994,17 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1029,11 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1100,17 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1177,17 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1254,17 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1331,17 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,16 +1363,19 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F17" s="3">
         <v>300</v>
@@ -1304,28 +1384,28 @@
         <v>300</v>
       </c>
       <c r="H17" s="3">
+        <v>300</v>
+      </c>
+      <c r="I17" s="3">
+        <v>300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>300</v>
+      </c>
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
-      </c>
-      <c r="M17" s="3">
-        <v>400</v>
-      </c>
-      <c r="N17" s="3">
-        <v>400</v>
-      </c>
-      <c r="O17" s="3">
-        <v>400</v>
       </c>
       <c r="P17" s="3">
         <v>400</v>
@@ -1334,13 +1414,13 @@
         <v>400</v>
       </c>
       <c r="R17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="S17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="U17" s="3">
         <v>300</v>
@@ -1354,8 +1434,17 @@
       <c r="X17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1366,28 +1455,28 @@
         <v>1600</v>
       </c>
       <c r="F18" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I18" s="3">
         <v>1400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="J18" s="3">
         <v>1500</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1400</v>
-      </c>
-      <c r="I18" s="3">
-        <v>900</v>
-      </c>
-      <c r="J18" s="3">
-        <v>1300</v>
       </c>
       <c r="K18" s="3">
         <v>1400</v>
       </c>
       <c r="L18" s="3">
-        <v>1400</v>
+        <v>900</v>
       </c>
       <c r="M18" s="3">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="N18" s="3">
         <v>1400</v>
@@ -1396,34 +1485,43 @@
         <v>1400</v>
       </c>
       <c r="P18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q18" s="3">
         <v>1400</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>1300</v>
       </c>
       <c r="R18" s="3">
         <v>1400</v>
       </c>
       <c r="S18" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="T18" s="3">
         <v>1300</v>
       </c>
       <c r="U18" s="3">
+        <v>1400</v>
+      </c>
+      <c r="V18" s="3">
+        <v>1300</v>
+      </c>
+      <c r="W18" s="3">
+        <v>1300</v>
+      </c>
+      <c r="X18" s="3">
         <v>1200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="Y18" s="3">
         <v>1200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Z18" s="3">
         <v>1200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="AA18" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1546,11 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1457,31 +1558,31 @@
         <v>-1400</v>
       </c>
       <c r="E20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="H20" s="3">
         <v>-1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="I20" s="3">
         <v>-1100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-500</v>
       </c>
       <c r="J20" s="3">
         <v>-1200</v>
       </c>
       <c r="K20" s="3">
-        <v>-1300</v>
+        <v>-1600</v>
       </c>
       <c r="L20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M20" s="3">
         <v>-1200</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-1300</v>
       </c>
       <c r="N20" s="3">
         <v>-1300</v>
@@ -1490,34 +1591,43 @@
         <v>-1200</v>
       </c>
       <c r="P20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="R20" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="T20" s="3">
         <v>-1100</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-900</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-1000</v>
       </c>
       <c r="U20" s="3">
         <v>-1100</v>
       </c>
       <c r="V20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="W20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="X20" s="3">
         <v>-1100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-1100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1584,8 +1694,17 @@
       <c r="X21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,16 +1771,25 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E23" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="F23" s="3">
         <v>300</v>
@@ -1670,19 +1798,19 @@
         <v>200</v>
       </c>
       <c r="H23" s="3">
+        <v>400</v>
+      </c>
+      <c r="I23" s="3">
+        <v>300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>400</v>
-      </c>
-      <c r="J23" s="3">
-        <v>100</v>
-      </c>
-      <c r="K23" s="3">
-        <v>100</v>
-      </c>
-      <c r="L23" s="3">
-        <v>200</v>
       </c>
       <c r="M23" s="3">
         <v>100</v>
@@ -1694,34 +1822,43 @@
         <v>200</v>
       </c>
       <c r="P23" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="Q23" s="3">
+        <v>100</v>
+      </c>
+      <c r="R23" s="3">
         <v>200</v>
-      </c>
-      <c r="R23" s="3">
-        <v>300</v>
       </c>
       <c r="S23" s="3">
         <v>300</v>
       </c>
       <c r="T23" s="3">
+        <v>200</v>
+      </c>
+      <c r="U23" s="3">
         <v>300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
+        <v>300</v>
+      </c>
+      <c r="W23" s="3">
+        <v>300</v>
+      </c>
+      <c r="X23" s="3">
         <v>100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="Y23" s="3">
         <v>100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Z23" s="3">
         <v>100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="AA23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1729,29 +1866,29 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
@@ -1774,22 +1911,31 @@
         <v>0</v>
       </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>100</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
       <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,16 +2002,25 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E26" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F26" s="3">
         <v>200</v>
@@ -1874,22 +2029,22 @@
         <v>200</v>
       </c>
       <c r="H26" s="3">
+        <v>300</v>
+      </c>
+      <c r="I26" s="3">
+        <v>200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>400</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
-        <v>100</v>
-      </c>
-      <c r="L26" s="3">
-        <v>200</v>
-      </c>
       <c r="M26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3">
         <v>100</v>
@@ -1898,42 +2053,51 @@
         <v>200</v>
       </c>
       <c r="P26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R26" s="3">
         <v>200</v>
       </c>
       <c r="S26" s="3">
+        <v>200</v>
+      </c>
+      <c r="T26" s="3">
+        <v>200</v>
+      </c>
+      <c r="U26" s="3">
+        <v>200</v>
+      </c>
+      <c r="V26" s="3">
         <v>300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="W26" s="3">
         <v>300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="X26" s="3">
         <v>100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="Y26" s="3">
         <v>100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Z26" s="3">
         <v>100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="AA26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E27" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F27" s="3">
         <v>200</v>
@@ -1942,22 +2106,22 @@
         <v>200</v>
       </c>
       <c r="H27" s="3">
+        <v>300</v>
+      </c>
+      <c r="I27" s="3">
+        <v>200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>400</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
-        <v>100</v>
-      </c>
-      <c r="L27" s="3">
-        <v>200</v>
-      </c>
       <c r="M27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3">
         <v>100</v>
@@ -1966,34 +2130,43 @@
         <v>200</v>
       </c>
       <c r="P27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R27" s="3">
         <v>200</v>
       </c>
       <c r="S27" s="3">
+        <v>200</v>
+      </c>
+      <c r="T27" s="3">
+        <v>200</v>
+      </c>
+      <c r="U27" s="3">
+        <v>200</v>
+      </c>
+      <c r="V27" s="3">
         <v>300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="W27" s="3">
         <v>300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="X27" s="3">
         <v>100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="Y27" s="3">
         <v>100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Z27" s="3">
         <v>100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="AA27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2233,17 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2310,17 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2387,17 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2464,17 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2273,31 +2482,31 @@
         <v>1400</v>
       </c>
       <c r="E32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H32" s="3">
         <v>1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="I32" s="3">
         <v>1100</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H32" s="3">
-        <v>1600</v>
-      </c>
-      <c r="I32" s="3">
-        <v>500</v>
       </c>
       <c r="J32" s="3">
         <v>1200</v>
       </c>
       <c r="K32" s="3">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="L32" s="3">
+        <v>500</v>
+      </c>
+      <c r="M32" s="3">
         <v>1200</v>
-      </c>
-      <c r="M32" s="3">
-        <v>1300</v>
       </c>
       <c r="N32" s="3">
         <v>1300</v>
@@ -2306,42 +2515,51 @@
         <v>1200</v>
       </c>
       <c r="P32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R32" s="3">
         <v>1200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T32" s="3">
         <v>1100</v>
-      </c>
-      <c r="R32" s="3">
-        <v>1100</v>
-      </c>
-      <c r="S32" s="3">
-        <v>900</v>
-      </c>
-      <c r="T32" s="3">
-        <v>1000</v>
       </c>
       <c r="U32" s="3">
         <v>1100</v>
       </c>
       <c r="V32" s="3">
+        <v>900</v>
+      </c>
+      <c r="W32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X32" s="3">
         <v>1100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>1100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AA32" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E33" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F33" s="3">
         <v>200</v>
@@ -2350,22 +2568,22 @@
         <v>200</v>
       </c>
       <c r="H33" s="3">
+        <v>300</v>
+      </c>
+      <c r="I33" s="3">
+        <v>200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>400</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
-        <v>100</v>
-      </c>
-      <c r="L33" s="3">
-        <v>200</v>
-      </c>
       <c r="M33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N33" s="3">
         <v>100</v>
@@ -2374,34 +2592,43 @@
         <v>200</v>
       </c>
       <c r="P33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R33" s="3">
         <v>200</v>
       </c>
       <c r="S33" s="3">
+        <v>200</v>
+      </c>
+      <c r="T33" s="3">
+        <v>200</v>
+      </c>
+      <c r="U33" s="3">
+        <v>200</v>
+      </c>
+      <c r="V33" s="3">
         <v>300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="W33" s="3">
         <v>300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="X33" s="3">
         <v>100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="Y33" s="3">
         <v>100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Z33" s="3">
         <v>100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="AA33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,16 +2695,25 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E35" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F35" s="3">
         <v>200</v>
@@ -2486,22 +2722,22 @@
         <v>200</v>
       </c>
       <c r="H35" s="3">
+        <v>300</v>
+      </c>
+      <c r="I35" s="3">
+        <v>200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>400</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
-        <v>100</v>
-      </c>
-      <c r="L35" s="3">
-        <v>200</v>
-      </c>
       <c r="M35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N35" s="3">
         <v>100</v>
@@ -2510,107 +2746,125 @@
         <v>200</v>
       </c>
       <c r="P35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R35" s="3">
         <v>200</v>
       </c>
       <c r="S35" s="3">
+        <v>200</v>
+      </c>
+      <c r="T35" s="3">
+        <v>200</v>
+      </c>
+      <c r="U35" s="3">
+        <v>200</v>
+      </c>
+      <c r="V35" s="3">
         <v>300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="W35" s="3">
         <v>300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="X35" s="3">
         <v>100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="Y35" s="3">
         <v>100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Z35" s="3">
         <v>100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="AA35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2889,11 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2918,88 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>28500</v>
+      </c>
+      <c r="F41" s="3">
+        <v>17900</v>
+      </c>
+      <c r="G41" s="3">
         <v>13000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="H41" s="3">
         <v>15500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="I41" s="3">
         <v>21200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="J41" s="3">
         <v>23200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="K41" s="3">
         <v>23000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>29500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>30200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="N41" s="3">
         <v>24800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="O41" s="3">
         <v>15600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="P41" s="3">
         <v>9000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="Q41" s="3">
         <v>10200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="R41" s="3">
         <v>10400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="S41" s="3">
         <v>10200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="T41" s="3">
         <v>10700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="U41" s="3">
         <v>11700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="V41" s="3">
         <v>10800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="W41" s="3">
         <v>10100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="X41" s="3">
         <v>8400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="Y41" s="3">
         <v>9100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Z41" s="3">
         <v>12700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="AA41" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2740,47 +3009,47 @@
       <c r="E42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" s="3">
+      <c r="F42" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3">
         <v>7700</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="K42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3">
         <v>1700</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
-      </c>
-      <c r="R42" s="3">
-        <v>0</v>
-      </c>
-      <c r="S42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T42" s="3">
         <v>0</v>
@@ -2797,8 +3066,17 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +3143,17 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3220,17 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3001,8 +3297,17 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3069,8 +3374,17 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,8 +3451,17 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3148,47 +3471,47 @@
       <c r="E48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="3">
+      <c r="F48" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="3">
         <v>4200</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
         <v>4200</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
-      </c>
-      <c r="R48" s="3">
-        <v>0</v>
-      </c>
-      <c r="S48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
@@ -3205,8 +3528,17 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3605,17 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3682,17 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3759,17 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3836,17 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3913,94 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>234900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>235100</v>
+      </c>
+      <c r="F54" s="3">
+        <v>229500</v>
+      </c>
+      <c r="G54" s="3">
         <v>223900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="H54" s="3">
         <v>222400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>224600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
+        <v>212800</v>
+      </c>
+      <c r="K54" s="3">
         <v>213000</v>
       </c>
-      <c r="H54" s="3">
-        <v>213000</v>
-      </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>217600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>202500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>198800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>186500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>180200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="Q54" s="3">
         <v>182900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="R54" s="3">
         <v>181400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="S54" s="3">
         <v>181600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="T54" s="3">
         <v>179400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="U54" s="3">
         <v>177100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="V54" s="3">
         <v>174500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="W54" s="3">
         <v>170300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="X54" s="3">
         <v>165600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="Y54" s="3">
         <v>160500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Z54" s="3">
         <v>160700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="AA54" s="3">
         <v>159300</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +4025,11 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +4054,11 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3733,8 +4125,17 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3801,8 +4202,17 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3812,47 +4222,47 @@
       <c r="E59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="3">
+      <c r="F59" s="3">
+        <v>200</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3">
         <v>400</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
         <v>500</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
-      <c r="R59" s="3">
-        <v>0</v>
-      </c>
-      <c r="S59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T59" s="3">
         <v>0</v>
@@ -3869,8 +4279,17 @@
       <c r="X59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3937,8 +4356,17 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,8 +4433,17 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4073,8 +4510,17 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4587,17 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4664,17 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4741,94 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>212400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>212300</v>
+      </c>
+      <c r="F66" s="3">
+        <v>206700</v>
+      </c>
+      <c r="G66" s="3">
         <v>201400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>200000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>202500</v>
       </c>
-      <c r="G66" s="3">
-        <v>191000</v>
-      </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
+        <v>190800</v>
+      </c>
+      <c r="K66" s="3">
         <v>191100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>195400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>180700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>177000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>164700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>158600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>161200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="R66" s="3">
         <v>159600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="S66" s="3">
         <v>160000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="T66" s="3">
         <v>158000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="U66" s="3">
         <v>155800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="V66" s="3">
         <v>153400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="W66" s="3">
         <v>149500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="X66" s="3">
         <v>145100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="Y66" s="3">
         <v>140000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Z66" s="3">
         <v>140200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="AA66" s="3">
         <v>138700</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4853,11 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4924,17 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +5001,17 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +5078,17 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,8 +5155,17 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4654,47 +5175,47 @@
       <c r="E72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="3">
+      <c r="F72" s="3">
+        <v>14900</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="3">
         <v>14200</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>14100</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q72" s="3">
-        <v>0</v>
-      </c>
-      <c r="R72" s="3">
-        <v>0</v>
-      </c>
-      <c r="S72" s="3">
-        <v>0</v>
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T72" s="3">
         <v>0</v>
@@ -4711,8 +5232,17 @@
       <c r="X72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z72" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5309,17 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5386,17 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,8 +5463,17 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4924,34 +5481,34 @@
         <v>22500</v>
       </c>
       <c r="E76" s="3">
+        <v>22700</v>
+      </c>
+      <c r="F76" s="3">
+        <v>22800</v>
+      </c>
+      <c r="G76" s="3">
+        <v>22500</v>
+      </c>
+      <c r="H76" s="3">
         <v>22400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>22200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>22000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>21900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>22100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>21800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>21800</v>
-      </c>
-      <c r="L76" s="3">
-        <v>21800</v>
-      </c>
-      <c r="M76" s="3">
-        <v>21600</v>
-      </c>
-      <c r="N76" s="3">
-        <v>21600</v>
       </c>
       <c r="O76" s="3">
         <v>21800</v>
@@ -4960,31 +5517,40 @@
         <v>21600</v>
       </c>
       <c r="Q76" s="3">
+        <v>21600</v>
+      </c>
+      <c r="R76" s="3">
+        <v>21800</v>
+      </c>
+      <c r="S76" s="3">
+        <v>21600</v>
+      </c>
+      <c r="T76" s="3">
         <v>21400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="U76" s="3">
         <v>21300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="V76" s="3">
         <v>21100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="W76" s="3">
         <v>20800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="X76" s="3">
         <v>20500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="Y76" s="3">
         <v>20500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Z76" s="3">
         <v>20500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="AA76" s="3">
         <v>20600</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,89 +5617,107 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E81" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F81" s="3">
         <v>200</v>
@@ -5142,22 +5726,22 @@
         <v>200</v>
       </c>
       <c r="H81" s="3">
+        <v>300</v>
+      </c>
+      <c r="I81" s="3">
+        <v>200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>400</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
-        <v>100</v>
-      </c>
-      <c r="L81" s="3">
-        <v>200</v>
-      </c>
       <c r="M81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N81" s="3">
         <v>100</v>
@@ -5166,34 +5750,43 @@
         <v>200</v>
       </c>
       <c r="P81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R81" s="3">
         <v>200</v>
       </c>
       <c r="S81" s="3">
+        <v>200</v>
+      </c>
+      <c r="T81" s="3">
+        <v>200</v>
+      </c>
+      <c r="U81" s="3">
+        <v>200</v>
+      </c>
+      <c r="V81" s="3">
         <v>300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="W81" s="3">
         <v>300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="X81" s="3">
         <v>100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="Y81" s="3">
         <v>100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Z81" s="3">
         <v>100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="AA81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5811,11 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5882,17 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5959,17 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +6036,17 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +6113,17 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +6190,17 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +6267,17 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5694,8 +6344,17 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +6379,11 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6450,17 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6527,17 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6604,17 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5992,8 +6681,17 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6716,11 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6787,17 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6864,17 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6941,17 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +7018,17 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6358,8 +7095,17 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,8 +7172,17 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6492,6 +7247,15 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GVFF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GVFF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="92">
   <si>
     <t>GVFF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,126 +665,130 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="E8" s="3">
         <v>1800</v>
       </c>
       <c r="F8" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="G8" s="3">
         <v>1900</v>
@@ -793,22 +797,22 @@
         <v>1900</v>
       </c>
       <c r="I8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J8" s="3">
         <v>1700</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1800</v>
       </c>
       <c r="K8" s="3">
         <v>1800</v>
       </c>
       <c r="L8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M8" s="3">
         <v>1700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1800</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1900</v>
       </c>
       <c r="O8" s="3">
         <v>1900</v>
@@ -817,7 +821,7 @@
         <v>1900</v>
       </c>
       <c r="Q8" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="R8" s="3">
         <v>1800</v>
@@ -826,19 +830,19 @@
         <v>1800</v>
       </c>
       <c r="T8" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="U8" s="3">
         <v>1700</v>
       </c>
       <c r="V8" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="W8" s="3">
         <v>1600</v>
       </c>
       <c r="X8" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="Y8" s="3">
         <v>1500</v>
@@ -847,10 +851,13 @@
         <v>1500</v>
       </c>
       <c r="AA8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AB8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -926,8 +933,11 @@
       <c r="AA9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,19 +1392,20 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
       </c>
       <c r="F17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G17" s="3">
         <v>300</v>
@@ -1393,13 +1420,13 @@
         <v>300</v>
       </c>
       <c r="K17" s="3">
+        <v>300</v>
+      </c>
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
-      </c>
-      <c r="M17" s="3">
-        <v>500</v>
       </c>
       <c r="N17" s="3">
         <v>500</v>
@@ -1408,7 +1435,7 @@
         <v>500</v>
       </c>
       <c r="P17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q17" s="3">
         <v>400</v>
@@ -1423,7 +1450,7 @@
         <v>400</v>
       </c>
       <c r="U17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="V17" s="3">
         <v>300</v>
@@ -1443,13 +1470,16 @@
       <c r="AA17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E18" s="3">
         <v>1600</v>
@@ -1464,31 +1494,31 @@
         <v>1600</v>
       </c>
       <c r="I18" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J18" s="3">
         <v>1400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1300</v>
-      </c>
-      <c r="N18" s="3">
-        <v>1400</v>
       </c>
       <c r="O18" s="3">
         <v>1400</v>
       </c>
       <c r="P18" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q18" s="3">
         <v>1500</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>1400</v>
       </c>
       <c r="R18" s="3">
         <v>1400</v>
@@ -1497,19 +1527,19 @@
         <v>1400</v>
       </c>
       <c r="T18" s="3">
+        <v>1400</v>
+      </c>
+      <c r="U18" s="3">
         <v>1300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1400</v>
-      </c>
-      <c r="V18" s="3">
-        <v>1300</v>
       </c>
       <c r="W18" s="3">
         <v>1300</v>
       </c>
       <c r="X18" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="Y18" s="3">
         <v>1200</v>
@@ -1518,10 +1548,13 @@
         <v>1200</v>
       </c>
       <c r="AA18" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AB18" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,13 +1582,14 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="E20" s="3">
         <v>-1400</v>
@@ -1567,55 +1601,55 @@
         <v>-1400</v>
       </c>
       <c r="H20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I20" s="3">
         <v>-1200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1200</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-1300</v>
       </c>
       <c r="Q20" s="3">
         <v>-1300</v>
       </c>
       <c r="R20" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="S20" s="3">
         <v>-1200</v>
       </c>
       <c r="T20" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="U20" s="3">
         <v>-1100</v>
       </c>
       <c r="V20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="W20" s="3">
         <v>-900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1000</v>
-      </c>
-      <c r="X20" s="3">
-        <v>-1100</v>
       </c>
       <c r="Y20" s="3">
         <v>-1100</v>
@@ -1624,10 +1658,13 @@
         <v>-1100</v>
       </c>
       <c r="AA20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AB20" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1703,8 +1740,11 @@
       <c r="AA21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1780,8 +1820,11 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1792,52 +1835,52 @@
         <v>100</v>
       </c>
       <c r="F23" s="3">
+        <v>100</v>
+      </c>
+      <c r="G23" s="3">
         <v>300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>400</v>
-      </c>
-      <c r="M23" s="3">
-        <v>100</v>
       </c>
       <c r="N23" s="3">
         <v>100</v>
       </c>
       <c r="O23" s="3">
+        <v>100</v>
+      </c>
+      <c r="P23" s="3">
         <v>200</v>
-      </c>
-      <c r="P23" s="3">
-        <v>100</v>
       </c>
       <c r="Q23" s="3">
         <v>100</v>
       </c>
       <c r="R23" s="3">
+        <v>100</v>
+      </c>
+      <c r="S23" s="3">
         <v>200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>200</v>
-      </c>
-      <c r="U23" s="3">
-        <v>300</v>
       </c>
       <c r="V23" s="3">
         <v>300</v>
@@ -1846,7 +1889,7 @@
         <v>300</v>
       </c>
       <c r="X23" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Y23" s="3">
         <v>100</v>
@@ -1855,10 +1898,13 @@
         <v>100</v>
       </c>
       <c r="AA23" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1875,11 +1921,11 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1887,11 +1933,11 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
@@ -1920,11 +1966,11 @@
         <v>0</v>
       </c>
       <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
         <v>100</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
       <c r="Y24" s="3">
         <v>0</v>
       </c>
@@ -1932,10 +1978,13 @@
         <v>0</v>
       </c>
       <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,8 +2060,11 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2023,43 +2075,43 @@
         <v>100</v>
       </c>
       <c r="F26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G26" s="3">
         <v>200</v>
       </c>
       <c r="H26" s="3">
+        <v>200</v>
+      </c>
+      <c r="I26" s="3">
         <v>300</v>
-      </c>
-      <c r="I26" s="3">
-        <v>200</v>
       </c>
       <c r="J26" s="3">
         <v>200</v>
       </c>
       <c r="K26" s="3">
+        <v>200</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>400</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>200</v>
-      </c>
-      <c r="P26" s="3">
-        <v>100</v>
       </c>
       <c r="Q26" s="3">
         <v>100</v>
       </c>
       <c r="R26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S26" s="3">
         <v>200</v>
@@ -2071,13 +2123,13 @@
         <v>200</v>
       </c>
       <c r="V26" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W26" s="3">
         <v>300</v>
       </c>
       <c r="X26" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Y26" s="3">
         <v>100</v>
@@ -2086,10 +2138,13 @@
         <v>100</v>
       </c>
       <c r="AA26" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2100,43 +2155,43 @@
         <v>100</v>
       </c>
       <c r="F27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G27" s="3">
         <v>200</v>
       </c>
       <c r="H27" s="3">
+        <v>200</v>
+      </c>
+      <c r="I27" s="3">
         <v>300</v>
-      </c>
-      <c r="I27" s="3">
-        <v>200</v>
       </c>
       <c r="J27" s="3">
         <v>200</v>
       </c>
       <c r="K27" s="3">
+        <v>200</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>400</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>200</v>
-      </c>
-      <c r="P27" s="3">
-        <v>100</v>
       </c>
       <c r="Q27" s="3">
         <v>100</v>
       </c>
       <c r="R27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S27" s="3">
         <v>200</v>
@@ -2148,13 +2203,13 @@
         <v>200</v>
       </c>
       <c r="V27" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W27" s="3">
         <v>300</v>
       </c>
       <c r="X27" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Y27" s="3">
         <v>100</v>
@@ -2163,10 +2218,13 @@
         <v>100</v>
       </c>
       <c r="AA27" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,13 +2540,16 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E32" s="3">
         <v>1400</v>
@@ -2491,55 +2561,55 @@
         <v>1400</v>
       </c>
       <c r="H32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I32" s="3">
         <v>1200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1200</v>
-      </c>
-      <c r="P32" s="3">
-        <v>1300</v>
       </c>
       <c r="Q32" s="3">
         <v>1300</v>
       </c>
       <c r="R32" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="S32" s="3">
         <v>1200</v>
       </c>
       <c r="T32" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="U32" s="3">
         <v>1100</v>
       </c>
       <c r="V32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W32" s="3">
         <v>900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1000</v>
-      </c>
-      <c r="X32" s="3">
-        <v>1100</v>
       </c>
       <c r="Y32" s="3">
         <v>1100</v>
@@ -2548,10 +2618,13 @@
         <v>1100</v>
       </c>
       <c r="AA32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AB32" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2562,43 +2635,43 @@
         <v>100</v>
       </c>
       <c r="F33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G33" s="3">
         <v>200</v>
       </c>
       <c r="H33" s="3">
+        <v>200</v>
+      </c>
+      <c r="I33" s="3">
         <v>300</v>
-      </c>
-      <c r="I33" s="3">
-        <v>200</v>
       </c>
       <c r="J33" s="3">
         <v>200</v>
       </c>
       <c r="K33" s="3">
+        <v>200</v>
+      </c>
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>400</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>200</v>
-      </c>
-      <c r="P33" s="3">
-        <v>100</v>
       </c>
       <c r="Q33" s="3">
         <v>100</v>
       </c>
       <c r="R33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S33" s="3">
         <v>200</v>
@@ -2610,13 +2683,13 @@
         <v>200</v>
       </c>
       <c r="V33" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W33" s="3">
         <v>300</v>
       </c>
       <c r="X33" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Y33" s="3">
         <v>100</v>
@@ -2625,10 +2698,13 @@
         <v>100</v>
       </c>
       <c r="AA33" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,8 +2780,11 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2716,43 +2795,43 @@
         <v>100</v>
       </c>
       <c r="F35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G35" s="3">
         <v>200</v>
       </c>
       <c r="H35" s="3">
+        <v>200</v>
+      </c>
+      <c r="I35" s="3">
         <v>300</v>
-      </c>
-      <c r="I35" s="3">
-        <v>200</v>
       </c>
       <c r="J35" s="3">
         <v>200</v>
       </c>
       <c r="K35" s="3">
+        <v>200</v>
+      </c>
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>400</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>200</v>
-      </c>
-      <c r="P35" s="3">
-        <v>100</v>
       </c>
       <c r="Q35" s="3">
         <v>100</v>
       </c>
       <c r="R35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S35" s="3">
         <v>200</v>
@@ -2764,13 +2843,13 @@
         <v>200</v>
       </c>
       <c r="V35" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W35" s="3">
         <v>300</v>
       </c>
       <c r="X35" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Y35" s="3">
         <v>100</v>
@@ -2779,92 +2858,98 @@
         <v>100</v>
       </c>
       <c r="AA35" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3007,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E41" s="3">
         <v>13800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>28500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>17900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>13000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>15500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>21200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>23200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>23000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>29500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>30200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>24800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>15600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>10200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>10400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>10200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>10700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>11700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>10800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>10100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>8400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>9100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>12700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3009,36 +3099,36 @@
       <c r="E42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3">
         <v>2200</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="3">
         <v>7700</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3">
         <v>1700</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>5</v>
       </c>
@@ -3051,8 +3141,8 @@
       <c r="S42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T42" s="3">
-        <v>0</v>
+      <c r="T42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U42" s="3">
         <v>0</v>
@@ -3075,8 +3165,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3306,8 +3405,11 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3383,8 +3485,11 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,8 +3565,11 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3471,36 +3579,36 @@
       <c r="E48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3">
         <v>5000</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
         <v>4200</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>4200</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>5</v>
       </c>
@@ -3513,8 +3621,8 @@
       <c r="S48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T48" s="3">
-        <v>0</v>
+      <c r="T48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U48" s="3">
         <v>0</v>
@@ -3537,8 +3645,11 @@
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>232700</v>
+      </c>
+      <c r="E54" s="3">
         <v>234900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>235100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>229500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>223900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>222400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>224600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>212800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>213000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>217600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>202500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>198800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>186500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>180200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>182900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>181400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>181600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>179400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>177100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>174500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>170300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>165600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>160500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>160700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>159300</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4134,8 +4265,11 @@
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4211,8 +4345,11 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4222,36 +4359,36 @@
       <c r="E59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3">
         <v>200</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>500</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
@@ -4264,8 +4401,8 @@
       <c r="S59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T59" s="3">
-        <v>0</v>
+      <c r="T59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U59" s="3">
         <v>0</v>
@@ -4288,8 +4425,11 @@
       <c r="AA59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4365,8 +4505,11 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>210400</v>
+      </c>
+      <c r="E66" s="3">
         <v>212400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>212300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>206700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>201400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>200000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>202500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>190800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>191100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>195400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>180700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>177000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>164700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>158600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>161200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>159600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>160000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>158000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>155800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>153400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>149500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>145100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>140000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>140200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>138700</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,8 +5335,11 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5175,36 +5349,36 @@
       <c r="E72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="3">
         <v>14900</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
         <v>14200</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>14100</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>5</v>
       </c>
@@ -5217,8 +5391,8 @@
       <c r="S72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T72" s="3">
-        <v>0</v>
+      <c r="T72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U72" s="3">
         <v>0</v>
@@ -5241,8 +5415,11 @@
       <c r="AA72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,40 +5655,43 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E76" s="3">
         <v>22500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>22700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>22800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>22500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>22400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>22200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>22000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>22100</v>
-      </c>
-      <c r="M76" s="3">
-        <v>21800</v>
       </c>
       <c r="N76" s="3">
         <v>21800</v>
@@ -5514,31 +5700,31 @@
         <v>21800</v>
       </c>
       <c r="P76" s="3">
-        <v>21600</v>
+        <v>21800</v>
       </c>
       <c r="Q76" s="3">
         <v>21600</v>
       </c>
       <c r="R76" s="3">
+        <v>21600</v>
+      </c>
+      <c r="S76" s="3">
         <v>21800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>21600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>21400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>21300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>21100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>20800</v>
-      </c>
-      <c r="X76" s="3">
-        <v>20500</v>
       </c>
       <c r="Y76" s="3">
         <v>20500</v>
@@ -5547,10 +5733,13 @@
         <v>20500</v>
       </c>
       <c r="AA76" s="3">
+        <v>20500</v>
+      </c>
+      <c r="AB76" s="3">
         <v>20600</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,90 +5815,96 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5720,43 +5915,43 @@
         <v>100</v>
       </c>
       <c r="F81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G81" s="3">
         <v>200</v>
       </c>
       <c r="H81" s="3">
+        <v>200</v>
+      </c>
+      <c r="I81" s="3">
         <v>300</v>
-      </c>
-      <c r="I81" s="3">
-        <v>200</v>
       </c>
       <c r="J81" s="3">
         <v>200</v>
       </c>
       <c r="K81" s="3">
+        <v>200</v>
+      </c>
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>400</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>200</v>
-      </c>
-      <c r="P81" s="3">
-        <v>100</v>
       </c>
       <c r="Q81" s="3">
         <v>100</v>
       </c>
       <c r="R81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S81" s="3">
         <v>200</v>
@@ -5768,13 +5963,13 @@
         <v>200</v>
       </c>
       <c r="V81" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W81" s="3">
         <v>300</v>
       </c>
       <c r="X81" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Y81" s="3">
         <v>100</v>
@@ -5783,10 +5978,13 @@
         <v>100</v>
       </c>
       <c r="AA81" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,8 +6490,11 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6353,8 +6570,11 @@
       <c r="AA89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7104,8 +7350,11 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,8 +7430,11 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7256,6 +7508,9 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GVFF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GVFF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
   <si>
     <t>GVFF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,199 +665,212 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F8" s="3">
         <v>2000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1800</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1900</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1900</v>
       </c>
       <c r="I8" s="3">
         <v>1900</v>
       </c>
       <c r="J8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L8" s="3">
         <v>1700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1800</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1800</v>
-      </c>
-      <c r="M8" s="3">
-        <v>1700</v>
       </c>
       <c r="N8" s="3">
         <v>1800</v>
       </c>
       <c r="O8" s="3">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="P8" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="Q8" s="3">
         <v>1900</v>
       </c>
       <c r="R8" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="S8" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="T8" s="3">
         <v>1800</v>
       </c>
       <c r="U8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="V8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="W8" s="3">
         <v>1700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>1700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>1600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>1600</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>1500</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>1500</v>
       </c>
       <c r="AA8" s="3">
         <v>1500</v>
       </c>
       <c r="AB8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AD8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -936,8 +949,14 @@
       <c r="AB9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1035,14 @@
       <c r="AB10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1071,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1153,14 @@
       <c r="AB12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1239,14 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1286,8 +1325,14 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1411,14 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,25 +1444,27 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>400</v>
+      </c>
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
-      </c>
-      <c r="G17" s="3">
-        <v>300</v>
-      </c>
-      <c r="H17" s="3">
-        <v>300</v>
       </c>
       <c r="I17" s="3">
         <v>300</v>
@@ -1423,25 +1476,25 @@
         <v>300</v>
       </c>
       <c r="L17" s="3">
+        <v>300</v>
+      </c>
+      <c r="M17" s="3">
+        <v>300</v>
+      </c>
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>800</v>
-      </c>
-      <c r="N17" s="3">
-        <v>500</v>
-      </c>
-      <c r="O17" s="3">
-        <v>500</v>
       </c>
       <c r="P17" s="3">
         <v>500</v>
       </c>
       <c r="Q17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="R17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="S17" s="3">
         <v>400</v>
@@ -1453,10 +1506,10 @@
         <v>400</v>
       </c>
       <c r="V17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="W17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="X17" s="3">
         <v>300</v>
@@ -1473,19 +1526,25 @@
       <c r="AB17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E18" s="3">
         <v>1700</v>
       </c>
-      <c r="E18" s="3">
-        <v>1600</v>
-      </c>
       <c r="F18" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="G18" s="3">
         <v>1600</v>
@@ -1497,40 +1556,40 @@
         <v>1600</v>
       </c>
       <c r="J18" s="3">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K18" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="L18" s="3">
         <v>1400</v>
       </c>
       <c r="M18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N18" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O18" s="3">
         <v>900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>1400</v>
-      </c>
-      <c r="P18" s="3">
-        <v>1400</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>1500</v>
       </c>
       <c r="R18" s="3">
         <v>1400</v>
       </c>
       <c r="S18" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="T18" s="3">
         <v>1400</v>
       </c>
       <c r="U18" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="V18" s="3">
         <v>1400</v>
@@ -1539,22 +1598,28 @@
         <v>1300</v>
       </c>
       <c r="X18" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Y18" s="3">
         <v>1300</v>
       </c>
-      <c r="Y18" s="3">
-        <v>1200</v>
-      </c>
       <c r="Z18" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="AA18" s="3">
         <v>1200</v>
       </c>
       <c r="AB18" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AD18" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,19 +1648,21 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="E20" s="3">
         <v>-1400</v>
       </c>
       <c r="F20" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="G20" s="3">
         <v>-1400</v>
@@ -1604,25 +1671,25 @@
         <v>-1400</v>
       </c>
       <c r="I20" s="3">
-        <v>-1200</v>
+        <v>-1400</v>
       </c>
       <c r="J20" s="3">
-        <v>-1100</v>
+        <v>-1400</v>
       </c>
       <c r="K20" s="3">
         <v>-1200</v>
       </c>
       <c r="L20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="N20" s="3">
         <v>-1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-500</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-1300</v>
       </c>
       <c r="P20" s="3">
         <v>-1200</v>
@@ -1631,40 +1698,46 @@
         <v>-1300</v>
       </c>
       <c r="R20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="S20" s="3">
         <v>-1300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="U20" s="3">
         <v>-1200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-1200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-1100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-1100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-1000</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>-1100</v>
       </c>
       <c r="AA20" s="3">
         <v>-1100</v>
       </c>
       <c r="AB20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AD20" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1743,8 +1816,14 @@
       <c r="AB21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1823,61 +1902,67 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E23" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F23" s="3">
         <v>100</v>
       </c>
       <c r="G23" s="3">
+        <v>100</v>
+      </c>
+      <c r="H23" s="3">
+        <v>100</v>
+      </c>
+      <c r="I23" s="3">
         <v>300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>100</v>
-      </c>
-      <c r="O23" s="3">
-        <v>100</v>
-      </c>
-      <c r="P23" s="3">
-        <v>200</v>
       </c>
       <c r="Q23" s="3">
         <v>100</v>
       </c>
       <c r="R23" s="3">
+        <v>200</v>
+      </c>
+      <c r="S23" s="3">
         <v>100</v>
       </c>
-      <c r="S23" s="3">
-        <v>200</v>
-      </c>
       <c r="T23" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="U23" s="3">
         <v>200</v>
@@ -1886,25 +1971,31 @@
         <v>300</v>
       </c>
       <c r="W23" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X23" s="3">
         <v>300</v>
       </c>
       <c r="Y23" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Z23" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="AA23" s="3">
         <v>100</v>
       </c>
       <c r="AB23" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1912,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1924,26 +2015,26 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
@@ -1969,22 +2060,28 @@
         <v>0</v>
       </c>
       <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
         <v>100</v>
       </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>0</v>
-      </c>
       <c r="AA24" s="3">
         <v>0</v>
       </c>
       <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,61 +2160,67 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E26" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F26" s="3">
         <v>100</v>
       </c>
       <c r="G26" s="3">
+        <v>100</v>
+      </c>
+      <c r="H26" s="3">
+        <v>100</v>
+      </c>
+      <c r="I26" s="3">
         <v>200</v>
-      </c>
-      <c r="H26" s="3">
-        <v>200</v>
-      </c>
-      <c r="I26" s="3">
-        <v>300</v>
       </c>
       <c r="J26" s="3">
         <v>200</v>
       </c>
       <c r="K26" s="3">
+        <v>300</v>
+      </c>
+      <c r="L26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
+        <v>200</v>
+      </c>
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>400</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3">
-        <v>100</v>
-      </c>
       <c r="P26" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="3">
         <v>100</v>
       </c>
       <c r="R26" s="3">
+        <v>200</v>
+      </c>
+      <c r="S26" s="3">
         <v>100</v>
       </c>
-      <c r="S26" s="3">
-        <v>200</v>
-      </c>
       <c r="T26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U26" s="3">
         <v>200</v>
@@ -2126,78 +2229,84 @@
         <v>200</v>
       </c>
       <c r="W26" s="3">
+        <v>200</v>
+      </c>
+      <c r="X26" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y26" s="3">
         <v>300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>300</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>100</v>
       </c>
       <c r="AA26" s="3">
         <v>100</v>
       </c>
       <c r="AB26" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E27" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F27" s="3">
         <v>100</v>
       </c>
       <c r="G27" s="3">
+        <v>100</v>
+      </c>
+      <c r="H27" s="3">
+        <v>100</v>
+      </c>
+      <c r="I27" s="3">
         <v>200</v>
-      </c>
-      <c r="H27" s="3">
-        <v>200</v>
-      </c>
-      <c r="I27" s="3">
-        <v>300</v>
       </c>
       <c r="J27" s="3">
         <v>200</v>
       </c>
       <c r="K27" s="3">
+        <v>300</v>
+      </c>
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
+        <v>200</v>
+      </c>
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>400</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
-        <v>100</v>
-      </c>
       <c r="P27" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="3">
         <v>100</v>
       </c>
       <c r="R27" s="3">
+        <v>200</v>
+      </c>
+      <c r="S27" s="3">
         <v>100</v>
       </c>
-      <c r="S27" s="3">
-        <v>200</v>
-      </c>
       <c r="T27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U27" s="3">
         <v>200</v>
@@ -2206,25 +2315,31 @@
         <v>200</v>
       </c>
       <c r="W27" s="3">
+        <v>200</v>
+      </c>
+      <c r="X27" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y27" s="3">
         <v>300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>300</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>100</v>
       </c>
       <c r="AA27" s="3">
         <v>100</v>
       </c>
       <c r="AB27" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2418,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2504,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,19 +2676,25 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="E32" s="3">
         <v>1400</v>
       </c>
       <c r="F32" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="G32" s="3">
         <v>1400</v>
@@ -2564,25 +2703,25 @@
         <v>1400</v>
       </c>
       <c r="I32" s="3">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="J32" s="3">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="K32" s="3">
         <v>1200</v>
       </c>
       <c r="L32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N32" s="3">
         <v>1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>500</v>
-      </c>
-      <c r="N32" s="3">
-        <v>1200</v>
-      </c>
-      <c r="O32" s="3">
-        <v>1300</v>
       </c>
       <c r="P32" s="3">
         <v>1200</v>
@@ -2591,93 +2730,99 @@
         <v>1300</v>
       </c>
       <c r="R32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S32" s="3">
         <v>1300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U32" s="3">
         <v>1200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>1200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>1100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>1100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>1000</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>1100</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>1100</v>
       </c>
       <c r="AA32" s="3">
         <v>1100</v>
       </c>
       <c r="AB32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AD32" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E33" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F33" s="3">
         <v>100</v>
       </c>
       <c r="G33" s="3">
+        <v>100</v>
+      </c>
+      <c r="H33" s="3">
+        <v>100</v>
+      </c>
+      <c r="I33" s="3">
         <v>200</v>
-      </c>
-      <c r="H33" s="3">
-        <v>200</v>
-      </c>
-      <c r="I33" s="3">
-        <v>300</v>
       </c>
       <c r="J33" s="3">
         <v>200</v>
       </c>
       <c r="K33" s="3">
+        <v>300</v>
+      </c>
+      <c r="L33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
+        <v>200</v>
+      </c>
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>400</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3">
-        <v>100</v>
-      </c>
       <c r="P33" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="3">
         <v>100</v>
       </c>
       <c r="R33" s="3">
+        <v>200</v>
+      </c>
+      <c r="S33" s="3">
         <v>100</v>
       </c>
-      <c r="S33" s="3">
-        <v>200</v>
-      </c>
       <c r="T33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U33" s="3">
         <v>200</v>
@@ -2686,25 +2831,31 @@
         <v>200</v>
       </c>
       <c r="W33" s="3">
+        <v>200</v>
+      </c>
+      <c r="X33" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y33" s="3">
         <v>300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>300</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>100</v>
       </c>
       <c r="AA33" s="3">
         <v>100</v>
       </c>
       <c r="AB33" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,61 +2934,67 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E35" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F35" s="3">
         <v>100</v>
       </c>
       <c r="G35" s="3">
+        <v>100</v>
+      </c>
+      <c r="H35" s="3">
+        <v>100</v>
+      </c>
+      <c r="I35" s="3">
         <v>200</v>
-      </c>
-      <c r="H35" s="3">
-        <v>200</v>
-      </c>
-      <c r="I35" s="3">
-        <v>300</v>
       </c>
       <c r="J35" s="3">
         <v>200</v>
       </c>
       <c r="K35" s="3">
+        <v>300</v>
+      </c>
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
+        <v>200</v>
+      </c>
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>400</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3">
-        <v>100</v>
-      </c>
       <c r="P35" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="3">
         <v>100</v>
       </c>
       <c r="R35" s="3">
+        <v>200</v>
+      </c>
+      <c r="S35" s="3">
         <v>100</v>
       </c>
-      <c r="S35" s="3">
-        <v>200</v>
-      </c>
       <c r="T35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U35" s="3">
         <v>200</v>
@@ -2846,110 +3003,122 @@
         <v>200</v>
       </c>
       <c r="W35" s="3">
+        <v>200</v>
+      </c>
+      <c r="X35" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y35" s="3">
         <v>300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>300</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>100</v>
       </c>
       <c r="AA35" s="3">
         <v>100</v>
       </c>
       <c r="AB35" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,88 +3179,96 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>12900</v>
+      </c>
+      <c r="F41" s="3">
         <v>8500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>13800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>28500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>17900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>13000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>15500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>21200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>23200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>23000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>29500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>30200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>24800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>15600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>9000</v>
-      </c>
-      <c r="R41" s="3">
-        <v>10200</v>
-      </c>
-      <c r="S41" s="3">
-        <v>10400</v>
       </c>
       <c r="T41" s="3">
         <v>10200</v>
       </c>
       <c r="U41" s="3">
+        <v>10400</v>
+      </c>
+      <c r="V41" s="3">
+        <v>10200</v>
+      </c>
+      <c r="W41" s="3">
         <v>10700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>11700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>10800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>10100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>8400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>9100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>12700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3102,39 +3281,39 @@
       <c r="F42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3">
         <v>2200</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3">
         <v>7700</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3">
         <v>1700</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>5</v>
       </c>
@@ -3144,11 +3323,11 @@
       <c r="T42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U42" s="3">
-        <v>0</v>
-      </c>
-      <c r="V42" s="3">
-        <v>0</v>
+      <c r="U42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W42" s="3">
         <v>0</v>
@@ -3168,8 +3347,14 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3248,8 +3433,14 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,8 +3519,14 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3408,8 +3605,14 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3488,8 +3691,14 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,8 +3777,14 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3582,39 +3797,39 @@
       <c r="F48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3">
         <v>5000</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>4200</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>4200</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>5</v>
       </c>
@@ -3624,11 +3839,11 @@
       <c r="T48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U48" s="3">
-        <v>0</v>
-      </c>
-      <c r="V48" s="3">
-        <v>0</v>
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W48" s="3">
         <v>0</v>
@@ -3648,8 +3863,14 @@
       <c r="AB48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3728,8 +3949,14 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4121,14 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3968,8 +4207,14 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4293,100 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>251000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>242200</v>
+      </c>
+      <c r="F54" s="3">
         <v>232700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>234900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>235100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>229500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>223900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>222400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>224600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>212800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>213000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>217600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>202500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>198800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>186500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>180200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>182900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>181400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>181600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>179400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>177100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>174500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>170300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>165600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>160500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>160700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>159300</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4447,10 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4268,8 +4529,14 @@
       <c r="AB57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4348,8 +4615,14 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4362,39 +4635,39 @@
       <c r="F59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="3">
         <v>200</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>500</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>5</v>
       </c>
@@ -4404,11 +4677,11 @@
       <c r="T59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U59" s="3">
-        <v>0</v>
-      </c>
-      <c r="V59" s="3">
-        <v>0</v>
+      <c r="U59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W59" s="3">
         <v>0</v>
@@ -4428,8 +4701,14 @@
       <c r="AB59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4508,8 +4787,14 @@
       <c r="AB60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4588,8 +4873,14 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4668,8 +4959,14 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5217,100 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>228700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>219600</v>
+      </c>
+      <c r="F66" s="3">
         <v>210400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>212400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>212300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>206700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>201400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>200000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>202500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>190800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>191100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>195400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>180700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>177000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>164700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>158600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>161200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>159600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>160000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>158000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>155800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>153400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>149500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>145100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>140000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>140200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>138700</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,8 +5679,14 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5352,39 +5699,39 @@
       <c r="F72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="3">
         <v>14900</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>14200</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>14100</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>5</v>
       </c>
@@ -5394,11 +5741,11 @@
       <c r="T72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U72" s="3">
-        <v>0</v>
-      </c>
-      <c r="V72" s="3">
-        <v>0</v>
+      <c r="U72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W72" s="3">
         <v>0</v>
@@ -5418,8 +5765,14 @@
       <c r="AB72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,8 +6023,14 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5667,79 +6038,85 @@
         <v>22300</v>
       </c>
       <c r="E76" s="3">
+        <v>22600</v>
+      </c>
+      <c r="F76" s="3">
+        <v>22300</v>
+      </c>
+      <c r="G76" s="3">
         <v>22500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>22700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>22800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>22500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>22400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>22200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>22000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>21900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>22100</v>
-      </c>
-      <c r="N76" s="3">
-        <v>21800</v>
-      </c>
-      <c r="O76" s="3">
-        <v>21800</v>
       </c>
       <c r="P76" s="3">
         <v>21800</v>
       </c>
       <c r="Q76" s="3">
+        <v>21800</v>
+      </c>
+      <c r="R76" s="3">
+        <v>21800</v>
+      </c>
+      <c r="S76" s="3">
         <v>21600</v>
-      </c>
-      <c r="R76" s="3">
-        <v>21600</v>
-      </c>
-      <c r="S76" s="3">
-        <v>21800</v>
       </c>
       <c r="T76" s="3">
         <v>21600</v>
       </c>
       <c r="U76" s="3">
+        <v>21800</v>
+      </c>
+      <c r="V76" s="3">
+        <v>21600</v>
+      </c>
+      <c r="W76" s="3">
         <v>21400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>21300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>21100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>20800</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>20500</v>
-      </c>
-      <c r="Z76" s="3">
-        <v>20500</v>
       </c>
       <c r="AA76" s="3">
         <v>20500</v>
       </c>
       <c r="AB76" s="3">
+        <v>20500</v>
+      </c>
+      <c r="AC76" s="3">
+        <v>20500</v>
+      </c>
+      <c r="AD76" s="3">
         <v>20600</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,146 +6195,158 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E81" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F81" s="3">
         <v>100</v>
       </c>
       <c r="G81" s="3">
+        <v>100</v>
+      </c>
+      <c r="H81" s="3">
+        <v>100</v>
+      </c>
+      <c r="I81" s="3">
         <v>200</v>
-      </c>
-      <c r="H81" s="3">
-        <v>200</v>
-      </c>
-      <c r="I81" s="3">
-        <v>300</v>
       </c>
       <c r="J81" s="3">
         <v>200</v>
       </c>
       <c r="K81" s="3">
+        <v>300</v>
+      </c>
+      <c r="L81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
+        <v>200</v>
+      </c>
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>400</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3">
-        <v>100</v>
-      </c>
       <c r="P81" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q81" s="3">
         <v>100</v>
       </c>
       <c r="R81" s="3">
+        <v>200</v>
+      </c>
+      <c r="S81" s="3">
         <v>100</v>
       </c>
-      <c r="S81" s="3">
-        <v>200</v>
-      </c>
       <c r="T81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U81" s="3">
         <v>200</v>
@@ -5966,25 +6355,31 @@
         <v>200</v>
       </c>
       <c r="W81" s="3">
+        <v>200</v>
+      </c>
+      <c r="X81" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y81" s="3">
         <v>300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>300</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>100</v>
       </c>
       <c r="AA81" s="3">
         <v>100</v>
       </c>
       <c r="AB81" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC81" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6408,10 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6093,8 +6490,14 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,8 +6920,14 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6573,8 +7006,14 @@
       <c r="AB89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +7042,10 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6683,8 +7124,14 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7296,14 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6923,8 +7382,14 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7418,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7500,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7758,14 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7353,8 +7844,14 @@
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,8 +7930,14 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7511,6 +8014,12 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GVFF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GVFF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
   <si>
     <t>GVFF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,146 +665,150 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E8" s="3">
         <v>2200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2000</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1800</v>
       </c>
       <c r="H8" s="3">
         <v>1800</v>
       </c>
       <c r="I8" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="J8" s="3">
         <v>1900</v>
@@ -813,22 +817,22 @@
         <v>1900</v>
       </c>
       <c r="L8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M8" s="3">
         <v>1700</v>
-      </c>
-      <c r="M8" s="3">
-        <v>1800</v>
       </c>
       <c r="N8" s="3">
         <v>1800</v>
       </c>
       <c r="O8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P8" s="3">
         <v>1700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1800</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>1900</v>
       </c>
       <c r="R8" s="3">
         <v>1900</v>
@@ -837,7 +841,7 @@
         <v>1900</v>
       </c>
       <c r="T8" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="U8" s="3">
         <v>1800</v>
@@ -846,19 +850,19 @@
         <v>1800</v>
       </c>
       <c r="W8" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="X8" s="3">
         <v>1700</v>
       </c>
       <c r="Y8" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="Z8" s="3">
         <v>1600</v>
       </c>
       <c r="AA8" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="AB8" s="3">
         <v>1500</v>
@@ -867,10 +871,13 @@
         <v>1500</v>
       </c>
       <c r="AD8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AE8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -955,8 +962,11 @@
       <c r="AD9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1041,8 +1051,11 @@
       <c r="AD10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1331,8 +1351,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,28 +1472,29 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E17" s="3">
         <v>400</v>
       </c>
       <c r="F17" s="3">
+        <v>400</v>
+      </c>
+      <c r="G17" s="3">
         <v>300</v>
-      </c>
-      <c r="G17" s="3">
-        <v>200</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
       </c>
       <c r="I17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J17" s="3">
         <v>300</v>
@@ -1482,13 +1509,13 @@
         <v>300</v>
       </c>
       <c r="N17" s="3">
+        <v>300</v>
+      </c>
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>800</v>
-      </c>
-      <c r="P17" s="3">
-        <v>500</v>
       </c>
       <c r="Q17" s="3">
         <v>500</v>
@@ -1497,7 +1524,7 @@
         <v>500</v>
       </c>
       <c r="S17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T17" s="3">
         <v>400</v>
@@ -1512,7 +1539,7 @@
         <v>400</v>
       </c>
       <c r="X17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Y17" s="3">
         <v>300</v>
@@ -1532,22 +1559,25 @@
       <c r="AD17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E18" s="3">
         <v>1800</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1700</v>
       </c>
       <c r="F18" s="3">
         <v>1700</v>
       </c>
       <c r="G18" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="H18" s="3">
         <v>1600</v>
@@ -1562,31 +1592,31 @@
         <v>1600</v>
       </c>
       <c r="L18" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M18" s="3">
         <v>1400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>1400</v>
       </c>
       <c r="R18" s="3">
         <v>1400</v>
       </c>
       <c r="S18" s="3">
+        <v>1400</v>
+      </c>
+      <c r="T18" s="3">
         <v>1500</v>
-      </c>
-      <c r="T18" s="3">
-        <v>1400</v>
       </c>
       <c r="U18" s="3">
         <v>1400</v>
@@ -1595,19 +1625,19 @@
         <v>1400</v>
       </c>
       <c r="W18" s="3">
+        <v>1400</v>
+      </c>
+      <c r="X18" s="3">
         <v>1300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1400</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>1300</v>
       </c>
       <c r="Z18" s="3">
         <v>1300</v>
       </c>
       <c r="AA18" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="AB18" s="3">
         <v>1200</v>
@@ -1616,10 +1646,13 @@
         <v>1200</v>
       </c>
       <c r="AD18" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AE18" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,8 +1683,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1659,13 +1693,13 @@
         <v>-1600</v>
       </c>
       <c r="E20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1500</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-1400</v>
       </c>
       <c r="H20" s="3">
         <v>-1400</v>
@@ -1677,55 +1711,55 @@
         <v>-1400</v>
       </c>
       <c r="K20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="L20" s="3">
         <v>-1200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1200</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-1300</v>
       </c>
       <c r="T20" s="3">
         <v>-1300</v>
       </c>
       <c r="U20" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="V20" s="3">
         <v>-1200</v>
       </c>
       <c r="W20" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="X20" s="3">
         <v>-1100</v>
       </c>
       <c r="Y20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-1000</v>
-      </c>
-      <c r="AA20" s="3">
-        <v>-1100</v>
       </c>
       <c r="AB20" s="3">
         <v>-1100</v>
@@ -1734,10 +1768,13 @@
         <v>-1100</v>
       </c>
       <c r="AD20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AE20" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1822,8 +1859,11 @@
       <c r="AD21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1908,19 +1948,22 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
         <v>200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>300</v>
-      </c>
-      <c r="F23" s="3">
-        <v>100</v>
       </c>
       <c r="G23" s="3">
         <v>100</v>
@@ -1929,52 +1972,52 @@
         <v>100</v>
       </c>
       <c r="I23" s="3">
+        <v>100</v>
+      </c>
+      <c r="J23" s="3">
         <v>300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>400</v>
-      </c>
-      <c r="P23" s="3">
-        <v>100</v>
       </c>
       <c r="Q23" s="3">
         <v>100</v>
       </c>
       <c r="R23" s="3">
+        <v>100</v>
+      </c>
+      <c r="S23" s="3">
         <v>200</v>
-      </c>
-      <c r="S23" s="3">
-        <v>100</v>
       </c>
       <c r="T23" s="3">
         <v>100</v>
       </c>
       <c r="U23" s="3">
+        <v>100</v>
+      </c>
+      <c r="V23" s="3">
         <v>200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>200</v>
-      </c>
-      <c r="X23" s="3">
-        <v>300</v>
       </c>
       <c r="Y23" s="3">
         <v>300</v>
@@ -1983,7 +2026,7 @@
         <v>300</v>
       </c>
       <c r="AA23" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="AB23" s="3">
         <v>100</v>
@@ -1992,10 +2035,13 @@
         <v>100</v>
       </c>
       <c r="AD23" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2003,11 +2049,11 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -2021,11 +2067,11 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
@@ -2033,11 +2079,11 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
@@ -2066,11 +2112,11 @@
         <v>0</v>
       </c>
       <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
         <v>100</v>
       </c>
-      <c r="AA24" s="3">
-        <v>0</v>
-      </c>
       <c r="AB24" s="3">
         <v>0</v>
       </c>
@@ -2078,10 +2124,13 @@
         <v>0</v>
       </c>
       <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,19 +2215,22 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3">
         <v>200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>300</v>
-      </c>
-      <c r="F26" s="3">
-        <v>100</v>
       </c>
       <c r="G26" s="3">
         <v>100</v>
@@ -2187,43 +2239,43 @@
         <v>100</v>
       </c>
       <c r="I26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J26" s="3">
         <v>200</v>
       </c>
       <c r="K26" s="3">
+        <v>200</v>
+      </c>
+      <c r="L26" s="3">
         <v>300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>200</v>
       </c>
       <c r="M26" s="3">
         <v>200</v>
       </c>
       <c r="N26" s="3">
+        <v>200</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>400</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>200</v>
-      </c>
-      <c r="S26" s="3">
-        <v>100</v>
       </c>
       <c r="T26" s="3">
         <v>100</v>
       </c>
       <c r="U26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V26" s="3">
         <v>200</v>
@@ -2235,13 +2287,13 @@
         <v>200</v>
       </c>
       <c r="Y26" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Z26" s="3">
         <v>300</v>
       </c>
       <c r="AA26" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="AB26" s="3">
         <v>100</v>
@@ -2250,21 +2302,24 @@
         <v>100</v>
       </c>
       <c r="AD26" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
         <v>200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>300</v>
-      </c>
-      <c r="F27" s="3">
-        <v>100</v>
       </c>
       <c r="G27" s="3">
         <v>100</v>
@@ -2273,43 +2328,43 @@
         <v>100</v>
       </c>
       <c r="I27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J27" s="3">
         <v>200</v>
       </c>
       <c r="K27" s="3">
+        <v>200</v>
+      </c>
+      <c r="L27" s="3">
         <v>300</v>
-      </c>
-      <c r="L27" s="3">
-        <v>200</v>
       </c>
       <c r="M27" s="3">
         <v>200</v>
       </c>
       <c r="N27" s="3">
+        <v>200</v>
+      </c>
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>400</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>200</v>
-      </c>
-      <c r="S27" s="3">
-        <v>100</v>
       </c>
       <c r="T27" s="3">
         <v>100</v>
       </c>
       <c r="U27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V27" s="3">
         <v>200</v>
@@ -2321,13 +2376,13 @@
         <v>200</v>
       </c>
       <c r="Y27" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Z27" s="3">
         <v>300</v>
       </c>
       <c r="AA27" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="AB27" s="3">
         <v>100</v>
@@ -2336,10 +2391,13 @@
         <v>100</v>
       </c>
       <c r="AD27" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,8 +2749,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2691,13 +2761,13 @@
         <v>1600</v>
       </c>
       <c r="E32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F32" s="3">
         <v>1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1500</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1400</v>
       </c>
       <c r="H32" s="3">
         <v>1400</v>
@@ -2709,55 +2779,55 @@
         <v>1400</v>
       </c>
       <c r="K32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L32" s="3">
         <v>1200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1200</v>
-      </c>
-      <c r="S32" s="3">
-        <v>1300</v>
       </c>
       <c r="T32" s="3">
         <v>1300</v>
       </c>
       <c r="U32" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="V32" s="3">
         <v>1200</v>
       </c>
       <c r="W32" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="X32" s="3">
         <v>1100</v>
       </c>
       <c r="Y32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Z32" s="3">
         <v>900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>1000</v>
-      </c>
-      <c r="AA32" s="3">
-        <v>1100</v>
       </c>
       <c r="AB32" s="3">
         <v>1100</v>
@@ -2766,21 +2836,24 @@
         <v>1100</v>
       </c>
       <c r="AD32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AE32" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
         <v>200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>300</v>
-      </c>
-      <c r="F33" s="3">
-        <v>100</v>
       </c>
       <c r="G33" s="3">
         <v>100</v>
@@ -2789,43 +2862,43 @@
         <v>100</v>
       </c>
       <c r="I33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J33" s="3">
         <v>200</v>
       </c>
       <c r="K33" s="3">
+        <v>200</v>
+      </c>
+      <c r="L33" s="3">
         <v>300</v>
-      </c>
-      <c r="L33" s="3">
-        <v>200</v>
       </c>
       <c r="M33" s="3">
         <v>200</v>
       </c>
       <c r="N33" s="3">
+        <v>200</v>
+      </c>
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>400</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>200</v>
-      </c>
-      <c r="S33" s="3">
-        <v>100</v>
       </c>
       <c r="T33" s="3">
         <v>100</v>
       </c>
       <c r="U33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V33" s="3">
         <v>200</v>
@@ -2837,13 +2910,13 @@
         <v>200</v>
       </c>
       <c r="Y33" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Z33" s="3">
         <v>300</v>
       </c>
       <c r="AA33" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="AB33" s="3">
         <v>100</v>
@@ -2852,10 +2925,13 @@
         <v>100</v>
       </c>
       <c r="AD33" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,19 +3016,22 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3">
         <v>200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>300</v>
-      </c>
-      <c r="F35" s="3">
-        <v>100</v>
       </c>
       <c r="G35" s="3">
         <v>100</v>
@@ -2961,43 +3040,43 @@
         <v>100</v>
       </c>
       <c r="I35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J35" s="3">
         <v>200</v>
       </c>
       <c r="K35" s="3">
+        <v>200</v>
+      </c>
+      <c r="L35" s="3">
         <v>300</v>
-      </c>
-      <c r="L35" s="3">
-        <v>200</v>
       </c>
       <c r="M35" s="3">
         <v>200</v>
       </c>
       <c r="N35" s="3">
+        <v>200</v>
+      </c>
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>400</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>200</v>
-      </c>
-      <c r="S35" s="3">
-        <v>100</v>
       </c>
       <c r="T35" s="3">
         <v>100</v>
       </c>
       <c r="U35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V35" s="3">
         <v>200</v>
@@ -3009,13 +3088,13 @@
         <v>200</v>
       </c>
       <c r="Y35" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Z35" s="3">
         <v>300</v>
       </c>
       <c r="AA35" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="AB35" s="3">
         <v>100</v>
@@ -3024,101 +3103,107 @@
         <v>100</v>
       </c>
       <c r="AD35" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,94 +3267,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E41" s="3">
         <v>20500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>12900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>13800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>28500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>17900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>13000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>21200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>23200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>23000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>29500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>30200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>24800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>15600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>10200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>10400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>10200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>10700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>11700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>10800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>10100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>8400</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>9100</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>12700</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3278,8 +3368,8 @@
       <c r="E42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
+      <c r="F42" s="3">
+        <v>2000</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>5</v>
@@ -3287,36 +3377,36 @@
       <c r="H42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3">
         <v>2200</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3">
         <v>7700</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R42" s="3">
         <v>1700</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>5</v>
       </c>
@@ -3329,8 +3419,8 @@
       <c r="V42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W42" s="3">
-        <v>0</v>
+      <c r="W42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X42" s="3">
         <v>0</v>
@@ -3353,8 +3443,11 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3439,8 +3532,11 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3525,8 +3621,11 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3611,8 +3710,11 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3697,8 +3799,11 @@
       <c r="AD46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3783,8 +3888,11 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3794,8 +3902,8 @@
       <c r="E48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
+      <c r="F48" s="3">
+        <v>5800</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>5</v>
@@ -3803,36 +3911,36 @@
       <c r="H48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="3">
         <v>5000</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
         <v>4200</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
         <v>4200</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>5</v>
       </c>
@@ -3845,8 +3953,8 @@
       <c r="V48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W48" s="3">
-        <v>0</v>
+      <c r="W48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X48" s="3">
         <v>0</v>
@@ -3869,8 +3977,11 @@
       <c r="AD48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>243500</v>
+      </c>
+      <c r="E54" s="3">
         <v>251000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>242200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>232700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>234900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>235100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>229500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>223900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>222400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>224600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>212800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>213000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>217600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>202500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>198800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>186500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>180200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>182900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>181400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>181600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>179400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>177100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>174500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>170300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>165600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>160500</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>160700</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>159300</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,8 +4579,9 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4535,8 +4666,11 @@
       <c r="AD57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4621,8 +4755,11 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4632,8 +4769,8 @@
       <c r="E59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
+      <c r="F59" s="3">
+        <v>0</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>5</v>
@@ -4641,36 +4778,36 @@
       <c r="H59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I59" s="3">
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3">
         <v>200</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3">
         <v>500</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>5</v>
       </c>
@@ -4683,8 +4820,8 @@
       <c r="V59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W59" s="3">
-        <v>0</v>
+      <c r="W59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X59" s="3">
         <v>0</v>
@@ -4707,8 +4844,11 @@
       <c r="AD59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4793,8 +4933,11 @@
       <c r="AD60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4879,8 +5022,11 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>221100</v>
+      </c>
+      <c r="E66" s="3">
         <v>228700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>219600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>210400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>212400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>212300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>206700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>201400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>200000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>202500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>190800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>191100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>195400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>180700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>177000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>164700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>158600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>161200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>159600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>160000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>158000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>155800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>153400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>149500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>145100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>140000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>140200</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>138700</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,8 +5856,11 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5696,8 +5870,8 @@
       <c r="E72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
+      <c r="F72" s="3">
+        <v>15300</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>5</v>
@@ -5705,36 +5879,36 @@
       <c r="H72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I72" s="3">
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="3">
         <v>14900</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>14200</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>14100</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>5</v>
       </c>
@@ -5747,8 +5921,8 @@
       <c r="V72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W72" s="3">
-        <v>0</v>
+      <c r="W72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X72" s="3">
         <v>0</v>
@@ -5771,8 +5945,11 @@
       <c r="AD72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,49 +6212,52 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E76" s="3">
         <v>22300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>22600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>22300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>22500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>22700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>22800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>22500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>22400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>22200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>22000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>21900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>22100</v>
-      </c>
-      <c r="P76" s="3">
-        <v>21800</v>
       </c>
       <c r="Q76" s="3">
         <v>21800</v>
@@ -6080,31 +6266,31 @@
         <v>21800</v>
       </c>
       <c r="S76" s="3">
-        <v>21600</v>
+        <v>21800</v>
       </c>
       <c r="T76" s="3">
         <v>21600</v>
       </c>
       <c r="U76" s="3">
+        <v>21600</v>
+      </c>
+      <c r="V76" s="3">
         <v>21800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>21600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>21400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>21300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>21100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>20800</v>
-      </c>
-      <c r="AA76" s="3">
-        <v>20500</v>
       </c>
       <c r="AB76" s="3">
         <v>20500</v>
@@ -6113,10 +6299,13 @@
         <v>20500</v>
       </c>
       <c r="AD76" s="3">
+        <v>20500</v>
+      </c>
+      <c r="AE76" s="3">
         <v>20600</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,110 +6390,116 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>100</v>
+      </c>
+      <c r="E81" s="3">
         <v>200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>300</v>
-      </c>
-      <c r="F81" s="3">
-        <v>100</v>
       </c>
       <c r="G81" s="3">
         <v>100</v>
@@ -6313,43 +6508,43 @@
         <v>100</v>
       </c>
       <c r="I81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J81" s="3">
         <v>200</v>
       </c>
       <c r="K81" s="3">
+        <v>200</v>
+      </c>
+      <c r="L81" s="3">
         <v>300</v>
-      </c>
-      <c r="L81" s="3">
-        <v>200</v>
       </c>
       <c r="M81" s="3">
         <v>200</v>
       </c>
       <c r="N81" s="3">
+        <v>200</v>
+      </c>
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>400</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>200</v>
-      </c>
-      <c r="S81" s="3">
-        <v>100</v>
       </c>
       <c r="T81" s="3">
         <v>100</v>
       </c>
       <c r="U81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V81" s="3">
         <v>200</v>
@@ -6361,13 +6556,13 @@
         <v>200</v>
       </c>
       <c r="Y81" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Z81" s="3">
         <v>300</v>
       </c>
       <c r="AA81" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="AB81" s="3">
         <v>100</v>
@@ -6376,10 +6571,13 @@
         <v>100</v>
       </c>
       <c r="AD81" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,8 +7140,11 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -7012,8 +7229,11 @@
       <c r="AD89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7130,8 +7351,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,8 +7529,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7388,8 +7618,11 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,8 +8007,11 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7850,8 +8096,11 @@
       <c r="AD100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,8 +8185,11 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -8020,6 +8272,9 @@
         <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GVFF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GVFF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="92">
   <si>
     <t>GVFF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,157 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E8" s="3">
         <v>2300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2000</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1800</v>
       </c>
       <c r="I8" s="3">
         <v>1800</v>
       </c>
       <c r="J8" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="K8" s="3">
         <v>1900</v>
@@ -820,22 +824,22 @@
         <v>1900</v>
       </c>
       <c r="M8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N8" s="3">
         <v>1700</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1800</v>
       </c>
       <c r="O8" s="3">
         <v>1800</v>
       </c>
       <c r="P8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q8" s="3">
         <v>1700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1800</v>
-      </c>
-      <c r="R8" s="3">
-        <v>1900</v>
       </c>
       <c r="S8" s="3">
         <v>1900</v>
@@ -844,7 +848,7 @@
         <v>1900</v>
       </c>
       <c r="U8" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="V8" s="3">
         <v>1800</v>
@@ -853,19 +857,19 @@
         <v>1800</v>
       </c>
       <c r="X8" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="Y8" s="3">
         <v>1700</v>
       </c>
       <c r="Z8" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="AA8" s="3">
         <v>1600</v>
       </c>
       <c r="AB8" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="AC8" s="3">
         <v>1500</v>
@@ -874,10 +878,13 @@
         <v>1500</v>
       </c>
       <c r="AE8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AF8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -965,8 +972,11 @@
       <c r="AE9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1054,8 +1064,11 @@
       <c r="AE10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1354,8 +1374,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,31 +1499,32 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
-      </c>
-      <c r="E17" s="3">
-        <v>400</v>
       </c>
       <c r="F17" s="3">
         <v>400</v>
       </c>
       <c r="G17" s="3">
+        <v>400</v>
+      </c>
+      <c r="H17" s="3">
         <v>300</v>
-      </c>
-      <c r="H17" s="3">
-        <v>200</v>
       </c>
       <c r="I17" s="3">
         <v>200</v>
       </c>
       <c r="J17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K17" s="3">
         <v>300</v>
@@ -1512,13 +1539,13 @@
         <v>300</v>
       </c>
       <c r="O17" s="3">
+        <v>300</v>
+      </c>
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>800</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>500</v>
       </c>
       <c r="R17" s="3">
         <v>500</v>
@@ -1527,7 +1554,7 @@
         <v>500</v>
       </c>
       <c r="T17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="U17" s="3">
         <v>400</v>
@@ -1542,7 +1569,7 @@
         <v>400</v>
       </c>
       <c r="Y17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Z17" s="3">
         <v>300</v>
@@ -1562,8 +1589,11 @@
       <c r="AE17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1571,16 +1601,16 @@
         <v>1700</v>
       </c>
       <c r="E18" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F18" s="3">
         <v>1800</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1700</v>
       </c>
       <c r="G18" s="3">
         <v>1700</v>
       </c>
       <c r="H18" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="I18" s="3">
         <v>1600</v>
@@ -1595,31 +1625,31 @@
         <v>1600</v>
       </c>
       <c r="M18" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N18" s="3">
         <v>1400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1300</v>
-      </c>
-      <c r="R18" s="3">
-        <v>1400</v>
       </c>
       <c r="S18" s="3">
         <v>1400</v>
       </c>
       <c r="T18" s="3">
+        <v>1400</v>
+      </c>
+      <c r="U18" s="3">
         <v>1500</v>
-      </c>
-      <c r="U18" s="3">
-        <v>1400</v>
       </c>
       <c r="V18" s="3">
         <v>1400</v>
@@ -1628,19 +1658,19 @@
         <v>1400</v>
       </c>
       <c r="X18" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Y18" s="3">
         <v>1300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1400</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>1300</v>
       </c>
       <c r="AA18" s="3">
         <v>1300</v>
       </c>
       <c r="AB18" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="AC18" s="3">
         <v>1200</v>
@@ -1649,10 +1679,13 @@
         <v>1200</v>
       </c>
       <c r="AE18" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AF18" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,8 +1717,9 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1696,13 +1730,13 @@
         <v>-1600</v>
       </c>
       <c r="F20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1500</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-1400</v>
       </c>
       <c r="I20" s="3">
         <v>-1400</v>
@@ -1714,55 +1748,55 @@
         <v>-1400</v>
       </c>
       <c r="L20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="M20" s="3">
         <v>-1200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1200</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-1300</v>
       </c>
       <c r="U20" s="3">
         <v>-1300</v>
       </c>
       <c r="V20" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="W20" s="3">
         <v>-1200</v>
       </c>
       <c r="X20" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="Y20" s="3">
         <v>-1100</v>
       </c>
       <c r="Z20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-1000</v>
-      </c>
-      <c r="AB20" s="3">
-        <v>-1100</v>
       </c>
       <c r="AC20" s="3">
         <v>-1100</v>
@@ -1771,10 +1805,13 @@
         <v>-1100</v>
       </c>
       <c r="AE20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AF20" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1862,8 +1899,11 @@
       <c r="AE21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1951,8 +1991,11 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1960,13 +2003,13 @@
         <v>100</v>
       </c>
       <c r="E23" s="3">
+        <v>100</v>
+      </c>
+      <c r="F23" s="3">
         <v>200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>300</v>
-      </c>
-      <c r="G23" s="3">
-        <v>100</v>
       </c>
       <c r="H23" s="3">
         <v>100</v>
@@ -1975,52 +2018,52 @@
         <v>100</v>
       </c>
       <c r="J23" s="3">
+        <v>100</v>
+      </c>
+      <c r="K23" s="3">
         <v>300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>400</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>100</v>
       </c>
       <c r="R23" s="3">
         <v>100</v>
       </c>
       <c r="S23" s="3">
+        <v>100</v>
+      </c>
+      <c r="T23" s="3">
         <v>200</v>
-      </c>
-      <c r="T23" s="3">
-        <v>100</v>
       </c>
       <c r="U23" s="3">
         <v>100</v>
       </c>
       <c r="V23" s="3">
+        <v>100</v>
+      </c>
+      <c r="W23" s="3">
         <v>200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>200</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>300</v>
       </c>
       <c r="Z23" s="3">
         <v>300</v>
@@ -2029,7 +2072,7 @@
         <v>300</v>
       </c>
       <c r="AB23" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="AC23" s="3">
         <v>100</v>
@@ -2038,10 +2081,13 @@
         <v>100</v>
       </c>
       <c r="AE23" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2052,11 +2098,11 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -2070,11 +2116,11 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
@@ -2082,11 +2128,11 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
@@ -2115,11 +2161,11 @@
         <v>0</v>
       </c>
       <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
         <v>100</v>
       </c>
-      <c r="AB24" s="3">
-        <v>0</v>
-      </c>
       <c r="AC24" s="3">
         <v>0</v>
       </c>
@@ -2127,10 +2173,13 @@
         <v>0</v>
       </c>
       <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,8 +2267,11 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2227,13 +2279,13 @@
         <v>100</v>
       </c>
       <c r="E26" s="3">
+        <v>100</v>
+      </c>
+      <c r="F26" s="3">
         <v>200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>300</v>
-      </c>
-      <c r="G26" s="3">
-        <v>100</v>
       </c>
       <c r="H26" s="3">
         <v>100</v>
@@ -2242,43 +2294,43 @@
         <v>100</v>
       </c>
       <c r="J26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K26" s="3">
         <v>200</v>
       </c>
       <c r="L26" s="3">
+        <v>200</v>
+      </c>
+      <c r="M26" s="3">
         <v>300</v>
-      </c>
-      <c r="M26" s="3">
-        <v>200</v>
       </c>
       <c r="N26" s="3">
         <v>200</v>
       </c>
       <c r="O26" s="3">
+        <v>200</v>
+      </c>
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>400</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>200</v>
-      </c>
-      <c r="T26" s="3">
-        <v>100</v>
       </c>
       <c r="U26" s="3">
         <v>100</v>
       </c>
       <c r="V26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W26" s="3">
         <v>200</v>
@@ -2290,13 +2342,13 @@
         <v>200</v>
       </c>
       <c r="Z26" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AA26" s="3">
         <v>300</v>
       </c>
       <c r="AB26" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="AC26" s="3">
         <v>100</v>
@@ -2305,10 +2357,13 @@
         <v>100</v>
       </c>
       <c r="AE26" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2316,13 +2371,13 @@
         <v>100</v>
       </c>
       <c r="E27" s="3">
+        <v>100</v>
+      </c>
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>300</v>
-      </c>
-      <c r="G27" s="3">
-        <v>100</v>
       </c>
       <c r="H27" s="3">
         <v>100</v>
@@ -2331,43 +2386,43 @@
         <v>100</v>
       </c>
       <c r="J27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K27" s="3">
         <v>200</v>
       </c>
       <c r="L27" s="3">
+        <v>200</v>
+      </c>
+      <c r="M27" s="3">
         <v>300</v>
-      </c>
-      <c r="M27" s="3">
-        <v>200</v>
       </c>
       <c r="N27" s="3">
         <v>200</v>
       </c>
       <c r="O27" s="3">
+        <v>200</v>
+      </c>
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>400</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>200</v>
-      </c>
-      <c r="T27" s="3">
-        <v>100</v>
       </c>
       <c r="U27" s="3">
         <v>100</v>
       </c>
       <c r="V27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W27" s="3">
         <v>200</v>
@@ -2379,13 +2434,13 @@
         <v>200</v>
       </c>
       <c r="Z27" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AA27" s="3">
         <v>300</v>
       </c>
       <c r="AB27" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="AC27" s="3">
         <v>100</v>
@@ -2394,10 +2449,13 @@
         <v>100</v>
       </c>
       <c r="AE27" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,8 +2819,11 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2764,13 +2834,13 @@
         <v>1600</v>
       </c>
       <c r="F32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G32" s="3">
         <v>1400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1500</v>
-      </c>
-      <c r="H32" s="3">
-        <v>1400</v>
       </c>
       <c r="I32" s="3">
         <v>1400</v>
@@ -2782,55 +2852,55 @@
         <v>1400</v>
       </c>
       <c r="L32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M32" s="3">
         <v>1200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1200</v>
-      </c>
-      <c r="T32" s="3">
-        <v>1300</v>
       </c>
       <c r="U32" s="3">
         <v>1300</v>
       </c>
       <c r="V32" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="W32" s="3">
         <v>1200</v>
       </c>
       <c r="X32" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="Y32" s="3">
         <v>1100</v>
       </c>
       <c r="Z32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AA32" s="3">
         <v>900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>1000</v>
-      </c>
-      <c r="AB32" s="3">
-        <v>1100</v>
       </c>
       <c r="AC32" s="3">
         <v>1100</v>
@@ -2839,10 +2909,13 @@
         <v>1100</v>
       </c>
       <c r="AE32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AF32" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2850,13 +2923,13 @@
         <v>100</v>
       </c>
       <c r="E33" s="3">
+        <v>100</v>
+      </c>
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>300</v>
-      </c>
-      <c r="G33" s="3">
-        <v>100</v>
       </c>
       <c r="H33" s="3">
         <v>100</v>
@@ -2865,43 +2938,43 @@
         <v>100</v>
       </c>
       <c r="J33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K33" s="3">
         <v>200</v>
       </c>
       <c r="L33" s="3">
+        <v>200</v>
+      </c>
+      <c r="M33" s="3">
         <v>300</v>
-      </c>
-      <c r="M33" s="3">
-        <v>200</v>
       </c>
       <c r="N33" s="3">
         <v>200</v>
       </c>
       <c r="O33" s="3">
+        <v>200</v>
+      </c>
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>400</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>200</v>
-      </c>
-      <c r="T33" s="3">
-        <v>100</v>
       </c>
       <c r="U33" s="3">
         <v>100</v>
       </c>
       <c r="V33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W33" s="3">
         <v>200</v>
@@ -2913,13 +2986,13 @@
         <v>200</v>
       </c>
       <c r="Z33" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AA33" s="3">
         <v>300</v>
       </c>
       <c r="AB33" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="AC33" s="3">
         <v>100</v>
@@ -2928,10 +3001,13 @@
         <v>100</v>
       </c>
       <c r="AE33" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,8 +3095,11 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -3028,13 +3107,13 @@
         <v>100</v>
       </c>
       <c r="E35" s="3">
+        <v>100</v>
+      </c>
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>300</v>
-      </c>
-      <c r="G35" s="3">
-        <v>100</v>
       </c>
       <c r="H35" s="3">
         <v>100</v>
@@ -3043,43 +3122,43 @@
         <v>100</v>
       </c>
       <c r="J35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K35" s="3">
         <v>200</v>
       </c>
       <c r="L35" s="3">
+        <v>200</v>
+      </c>
+      <c r="M35" s="3">
         <v>300</v>
-      </c>
-      <c r="M35" s="3">
-        <v>200</v>
       </c>
       <c r="N35" s="3">
         <v>200</v>
       </c>
       <c r="O35" s="3">
+        <v>200</v>
+      </c>
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>400</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>200</v>
-      </c>
-      <c r="T35" s="3">
-        <v>100</v>
       </c>
       <c r="U35" s="3">
         <v>100</v>
       </c>
       <c r="V35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W35" s="3">
         <v>200</v>
@@ -3091,13 +3170,13 @@
         <v>200</v>
       </c>
       <c r="Z35" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AA35" s="3">
         <v>300</v>
       </c>
       <c r="AB35" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="AC35" s="3">
         <v>100</v>
@@ -3106,104 +3185,110 @@
         <v>100</v>
       </c>
       <c r="AE35" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,97 +3354,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E41" s="3">
         <v>18000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>20500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>12900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>13800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>28500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>17900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>15500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>21200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>23200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>23000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>29500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>30200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>24800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>15600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>10200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>10400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>10200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>10700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>11700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>10800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>10100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>8400</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>9100</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>12700</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3368,48 +3458,48 @@
       <c r="E42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3">
         <v>2000</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="3">
         <v>2200</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3">
         <v>7700</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42" s="3">
         <v>1700</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T42" s="3" t="s">
         <v>5</v>
       </c>
@@ -3422,8 +3512,8 @@
       <c r="W42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X42" s="3">
-        <v>0</v>
+      <c r="X42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y42" s="3">
         <v>0</v>
@@ -3446,8 +3536,11 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3535,8 +3628,11 @@
       <c r="AE43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3624,8 +3720,11 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3713,8 +3812,11 @@
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3802,8 +3904,11 @@
       <c r="AE46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3891,8 +3996,11 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3902,48 +4010,48 @@
       <c r="E48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3">
         <v>5800</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
         <v>5000</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>4200</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>4200</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>5</v>
       </c>
@@ -3956,8 +4064,8 @@
       <c r="W48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X48" s="3">
-        <v>0</v>
+      <c r="X48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y48" s="3">
         <v>0</v>
@@ -3980,8 +4088,11 @@
       <c r="AE48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4069,8 +4180,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,8 +4364,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4336,8 +4456,11 @@
       <c r="AE52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>245700</v>
+      </c>
+      <c r="E54" s="3">
         <v>243500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>251000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>242200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>232700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>234900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>235100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>229500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>223900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>222400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>224600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>212800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>213000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>217600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>202500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>198800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>186500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>180200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>182900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>181400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>181600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>179400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>177100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>174500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>170300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>165600</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>160500</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>160700</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>159300</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,8 +4710,9 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4669,8 +4800,11 @@
       <c r="AE57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4758,8 +4892,11 @@
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4769,11 +4906,11 @@
       <c r="E59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
+      <c r="F59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>5</v>
@@ -4781,36 +4918,36 @@
       <c r="I59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3">
         <v>200</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>400</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="3">
         <v>500</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>5</v>
       </c>
@@ -4823,8 +4960,8 @@
       <c r="W59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X59" s="3">
-        <v>0</v>
+      <c r="X59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y59" s="3">
         <v>0</v>
@@ -4847,8 +4984,11 @@
       <c r="AE59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4936,8 +5076,11 @@
       <c r="AE60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -5025,8 +5168,11 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5114,8 +5260,11 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>223100</v>
+      </c>
+      <c r="E66" s="3">
         <v>221100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>228700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>219600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>210400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>212400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>212300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>206700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>201400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>200000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>202500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>190800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>191100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>195400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>180700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>177000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>164700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>158600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>161200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>159600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>160000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>158000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>155800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>153400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>149500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>145100</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>140000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>140200</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>138700</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,8 +6030,11 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5870,48 +6044,48 @@
       <c r="E72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="3">
         <v>15300</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
         <v>14900</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>14200</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>14100</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>5</v>
       </c>
@@ -5924,8 +6098,8 @@
       <c r="W72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X72" s="3">
-        <v>0</v>
+      <c r="X72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y72" s="3">
         <v>0</v>
@@ -5948,8 +6122,11 @@
       <c r="AE72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,52 +6398,55 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E76" s="3">
         <v>22400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>22300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>22600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>22300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>22500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>22700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>22800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>22500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>22400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>22200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>22000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>21900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>22100</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>21800</v>
       </c>
       <c r="R76" s="3">
         <v>21800</v>
@@ -6269,31 +6455,31 @@
         <v>21800</v>
       </c>
       <c r="T76" s="3">
-        <v>21600</v>
+        <v>21800</v>
       </c>
       <c r="U76" s="3">
         <v>21600</v>
       </c>
       <c r="V76" s="3">
+        <v>21600</v>
+      </c>
+      <c r="W76" s="3">
         <v>21800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>21600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>21400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>21300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>21100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>20800</v>
-      </c>
-      <c r="AB76" s="3">
-        <v>20500</v>
       </c>
       <c r="AC76" s="3">
         <v>20500</v>
@@ -6302,10 +6488,13 @@
         <v>20500</v>
       </c>
       <c r="AE76" s="3">
+        <v>20500</v>
+      </c>
+      <c r="AF76" s="3">
         <v>20600</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,102 +6582,108 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -6496,13 +6691,13 @@
         <v>100</v>
       </c>
       <c r="E81" s="3">
+        <v>100</v>
+      </c>
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>300</v>
-      </c>
-      <c r="G81" s="3">
-        <v>100</v>
       </c>
       <c r="H81" s="3">
         <v>100</v>
@@ -6511,43 +6706,43 @@
         <v>100</v>
       </c>
       <c r="J81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K81" s="3">
         <v>200</v>
       </c>
       <c r="L81" s="3">
+        <v>200</v>
+      </c>
+      <c r="M81" s="3">
         <v>300</v>
-      </c>
-      <c r="M81" s="3">
-        <v>200</v>
       </c>
       <c r="N81" s="3">
         <v>200</v>
       </c>
       <c r="O81" s="3">
+        <v>200</v>
+      </c>
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>400</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>200</v>
-      </c>
-      <c r="T81" s="3">
-        <v>100</v>
       </c>
       <c r="U81" s="3">
         <v>100</v>
       </c>
       <c r="V81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W81" s="3">
         <v>200</v>
@@ -6559,13 +6754,13 @@
         <v>200</v>
       </c>
       <c r="Z81" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AA81" s="3">
         <v>300</v>
       </c>
       <c r="AB81" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="AC81" s="3">
         <v>100</v>
@@ -6574,10 +6769,13 @@
         <v>100</v>
       </c>
       <c r="AE81" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,8 +7357,11 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -7232,8 +7449,11 @@
       <c r="AE89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,8 +7485,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7354,8 +7575,11 @@
       <c r="AE91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,8 +7759,11 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7621,8 +7851,11 @@
       <c r="AE94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,8 +8253,11 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -8099,8 +8345,11 @@
       <c r="AE100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,8 +8437,11 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -8275,6 +8527,9 @@
         <v>0</v>
       </c>
       <c r="AE102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="3">
         <v>0</v>
       </c>
     </row>
